--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -2632,10 +2632,10 @@
   <sheetPr/>
   <dimension ref="A1:AP336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="$A323:$XFD323"/>
+      <selection pane="bottomLeft" activeCell="S336" sqref="S336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -44511,7 +44511,7 @@
         <v>150</v>
       </c>
       <c r="S336" s="9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="T336" s="9">
         <v>70</v>

--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -672,7 +672,7 @@
     <t>林少镳头</t>
   </si>
   <si>
-    <t>31,0</t>
+    <t>32,0</t>
   </si>
   <si>
     <t>狄云</t>
@@ -2632,10 +2632,10 @@
   <sheetPr/>
   <dimension ref="A1:AP336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S336" sqref="S336"/>
+      <selection pane="bottomLeft" activeCell="AN40" sqref="AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -7424,7 +7424,7 @@
         <v>209</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
         <v>2</v>

--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AP$354</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="557">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -519,7 +522,7 @@
     <t>42,900</t>
   </si>
   <si>
-    <t>8,13|22,11|22,10</t>
+    <t>8,13|12,11|22,10</t>
   </si>
   <si>
     <t>左冷禅</t>
@@ -1350,6 +1353,9 @@
     <t>77,500</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>日月教徒</t>
   </si>
   <si>
@@ -1521,31 +1527,193 @@
     <t>恒山精英</t>
   </si>
   <si>
-    <t>34,900</t>
-  </si>
-  <si>
-    <t>8,5</t>
+    <t>42,600</t>
+  </si>
+  <si>
+    <t>8,5|12,5|22,5</t>
   </si>
   <si>
     <t>峨嵋精英</t>
   </si>
   <si>
-    <t>40,900</t>
+    <t>52,600</t>
+  </si>
+  <si>
+    <t>8,15</t>
   </si>
   <si>
     <t>丐帮精英</t>
   </si>
   <si>
+    <t>25,300</t>
+  </si>
+  <si>
     <t>18,5|13,5</t>
   </si>
   <si>
+    <t>少林精英</t>
+  </si>
+  <si>
+    <t>1,5|7,10|26,5|18,5</t>
+  </si>
+  <si>
     <t>小白</t>
   </si>
   <si>
     <t>140,600</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>昆仑精英</t>
+  </si>
+  <si>
+    <t>3,5|22,5|12,5</t>
+  </si>
+  <si>
+    <t>神龙精英</t>
+  </si>
+  <si>
+    <t>86,400</t>
+  </si>
+  <si>
+    <t>1,5|14,10</t>
+  </si>
+  <si>
+    <t>武当精英</t>
+  </si>
+  <si>
+    <t>41,900|58,0</t>
+  </si>
+  <si>
+    <t>6,10|1,5|23,5|14,5</t>
+  </si>
+  <si>
+    <t>崆峒精英</t>
+  </si>
+  <si>
+    <t>4,5|24,5|12,5</t>
+  </si>
+  <si>
+    <t>华山精英</t>
+  </si>
+  <si>
+    <t>37,800</t>
+  </si>
+  <si>
+    <t>5,5|1,5|12,5</t>
+  </si>
+  <si>
+    <t>衡山精英</t>
+  </si>
+  <si>
+    <t>46,500</t>
+  </si>
+  <si>
+    <t>1,2|4,5|12,5</t>
+  </si>
+  <si>
+    <t>嵩山精英</t>
+  </si>
+  <si>
+    <t>13,400</t>
+  </si>
+  <si>
+    <t>8,5|18,3|26,5</t>
+  </si>
+  <si>
+    <t>泰山精英</t>
+  </si>
+  <si>
+    <t>45,500</t>
+  </si>
+  <si>
+    <t>青城精英</t>
+  </si>
+  <si>
+    <t>32,800</t>
+  </si>
+  <si>
+    <t>11,3|3,3|15,5</t>
+  </si>
+  <si>
+    <t>五毒精英</t>
+  </si>
+  <si>
+    <t>77,800</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>日月精英</t>
+  </si>
+  <si>
+    <t>3,3|13,3|22,3</t>
+  </si>
+  <si>
+    <t>雪山精英</t>
+  </si>
+  <si>
+    <t>44,400</t>
+  </si>
+  <si>
+    <t>7,3|24,3|12,4</t>
+  </si>
+  <si>
+    <t>番僧精英</t>
+  </si>
+  <si>
+    <t>88,300</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>星宿精英</t>
+  </si>
+  <si>
+    <t>72,800|27,0</t>
+  </si>
+  <si>
+    <t>22,3|24,5</t>
+  </si>
+  <si>
+    <t>铁掌精英</t>
+  </si>
+  <si>
+    <t>63,900</t>
+  </si>
+  <si>
+    <t>3,6|22,3|18,3|12,3</t>
+  </si>
+  <si>
+    <t>全真精英</t>
+  </si>
+  <si>
+    <t>53,700</t>
+  </si>
+  <si>
+    <t>14,5|23,3|7,3</t>
+  </si>
+  <si>
+    <t>明教精英</t>
+  </si>
+  <si>
+    <t>74,900</t>
+  </si>
+  <si>
+    <t>3,3|22,3|12,5</t>
+  </si>
+  <si>
+    <t>翡冷翠</t>
+  </si>
+  <si>
+    <t>人见人爱</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
+    <t>侠客精英</t>
   </si>
 </sst>
 </file>
@@ -2630,12 +2798,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP336"/>
+  <dimension ref="A1:AP356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AN40" sqref="AN40"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -31826,8 +31994,8 @@
       <c r="AN234" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="AO234" s="7">
-        <v>-1</v>
+      <c r="AO234" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="235" ht="11.4" spans="1:41">
@@ -31841,10 +32009,10 @@
         <v>8</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F235" s="4">
         <v>0</v>
@@ -31949,7 +32117,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO235" s="7">
         <v>-1</v>
@@ -31966,10 +32134,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F236" s="4">
         <v>0</v>
@@ -32074,7 +32242,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO236" s="7">
         <v>-1</v>
@@ -32091,10 +32259,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F237" s="4">
         <v>0</v>
@@ -32199,7 +32367,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO237" s="7">
         <v>-1</v>
@@ -32216,10 +32384,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F238" s="4">
         <v>0</v>
@@ -32324,7 +32492,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO238" s="7">
         <v>-1</v>
@@ -32341,10 +32509,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F239" s="4">
         <v>0</v>
@@ -32449,7 +32617,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO239" s="7">
         <v>-1</v>
@@ -32466,10 +32634,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F240" s="4">
         <v>0</v>
@@ -32574,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO240" s="7">
         <v>-1</v>
@@ -32591,10 +32759,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F241" s="4">
         <v>0</v>
@@ -32699,7 +32867,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO241" s="7">
         <v>-1</v>
@@ -32716,10 +32884,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F242" s="4">
         <v>0</v>
@@ -32824,7 +32992,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO242" s="7">
         <v>-1</v>
@@ -32841,10 +33009,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F243" s="4">
         <v>0</v>
@@ -32949,7 +33117,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO243" s="7">
         <v>-1</v>
@@ -32966,10 +33134,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F244" s="4">
         <v>0</v>
@@ -33074,7 +33242,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO244" s="7">
         <v>-1</v>
@@ -33091,10 +33259,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F245" s="4">
         <v>0</v>
@@ -33199,7 +33367,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO245" s="7">
         <v>-1</v>
@@ -33216,10 +33384,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F246" s="4">
         <v>0</v>
@@ -33324,7 +33492,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO246" s="7">
         <v>-1</v>
@@ -33341,10 +33509,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F247" s="4">
         <v>0</v>
@@ -33449,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO247" s="7">
         <v>-1</v>
@@ -33466,10 +33634,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F248" s="4">
         <v>0</v>
@@ -33574,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO248" s="7">
         <v>-1</v>
@@ -33591,10 +33759,10 @@
         <v>4</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F249" s="4">
         <v>0</v>
@@ -33699,7 +33867,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO249" s="7">
         <v>-1</v>
@@ -33716,10 +33884,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F250" s="4">
         <v>0</v>
@@ -33824,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO250" s="7">
         <v>-1</v>
@@ -33841,10 +34009,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F251" s="4">
         <v>0</v>
@@ -33949,7 +34117,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO251" s="7">
         <v>-1</v>
@@ -33966,10 +34134,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F252" s="4">
         <v>0</v>
@@ -34074,7 +34242,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO252" s="7">
         <v>-1</v>
@@ -34091,10 +34259,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F253" s="4">
         <v>0</v>
@@ -34199,7 +34367,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO253" s="7">
         <v>-1</v>
@@ -34216,10 +34384,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F254" s="4">
         <v>0</v>
@@ -34324,7 +34492,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO254" s="7">
         <v>-1</v>
@@ -34341,10 +34509,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F255" s="4">
         <v>0</v>
@@ -34449,7 +34617,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO255" s="7">
         <v>-1</v>
@@ -34466,10 +34634,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F256" s="4">
         <v>0</v>
@@ -34574,7 +34742,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO256" s="7">
         <v>-1</v>
@@ -34591,10 +34759,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F257" s="4">
         <v>0</v>
@@ -34699,7 +34867,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO257" s="7">
         <v>-1</v>
@@ -34716,10 +34884,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F258" s="4">
         <v>0</v>
@@ -34824,7 +34992,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO258" s="7">
         <v>-1</v>
@@ -34841,10 +35009,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F259" s="4">
         <v>0</v>
@@ -34949,7 +35117,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO259" s="7">
         <v>-1</v>
@@ -34966,10 +35134,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F260" s="4">
         <v>0</v>
@@ -35074,7 +35242,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO260" s="7">
         <v>-1</v>
@@ -35091,10 +35259,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F261" s="4">
         <v>0</v>
@@ -35199,7 +35367,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO261" s="7">
         <v>-1</v>
@@ -35216,10 +35384,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F262" s="4">
         <v>0</v>
@@ -35324,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO262" s="7">
         <v>-1</v>
@@ -35341,10 +35509,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F263" s="4">
         <v>0</v>
@@ -35449,7 +35617,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO263" s="7">
         <v>-1</v>
@@ -35466,10 +35634,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F264" s="4">
         <v>0</v>
@@ -35574,7 +35742,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO264" s="7">
         <v>-1</v>
@@ -35591,10 +35759,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F265" s="4">
         <v>0</v>
@@ -35699,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO265" s="7">
         <v>-1</v>
@@ -35716,10 +35884,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F266" s="4">
         <v>0</v>
@@ -35824,7 +35992,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO266" s="7">
         <v>-1</v>
@@ -35841,10 +36009,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F267" s="4">
         <v>0</v>
@@ -35949,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO267" s="7">
         <v>-1</v>
@@ -35966,10 +36134,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F268" s="4">
         <v>0</v>
@@ -36074,7 +36242,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO268" s="7">
         <v>-1</v>
@@ -36091,10 +36259,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F269" s="4">
         <v>0</v>
@@ -36199,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO269" s="7">
         <v>-1</v>
@@ -36216,10 +36384,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F270" s="4">
         <v>0</v>
@@ -36324,7 +36492,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO270" s="7">
         <v>-1</v>
@@ -36341,10 +36509,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F271" s="4">
         <v>0</v>
@@ -36449,7 +36617,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO271" s="7">
         <v>-1</v>
@@ -36466,10 +36634,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F272" s="4">
         <v>0</v>
@@ -36574,7 +36742,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO272" s="7">
         <v>-1</v>
@@ -36591,10 +36759,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F273" s="4">
         <v>0</v>
@@ -36699,7 +36867,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO273" s="7">
         <v>-1</v>
@@ -36716,10 +36884,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F274" s="4">
         <v>0</v>
@@ -36824,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO274" s="7">
         <v>-1</v>
@@ -36841,10 +37009,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F275" s="4">
         <v>0</v>
@@ -36949,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO275" s="7">
         <v>-1</v>
@@ -36966,10 +37134,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F276" s="4">
         <v>0</v>
@@ -37074,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO276" s="7">
         <v>-1</v>
@@ -37091,10 +37259,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F277" s="4">
         <v>0</v>
@@ -37199,7 +37367,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO277" s="7">
         <v>-1</v>
@@ -37216,10 +37384,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F278" s="4">
         <v>0</v>
@@ -37324,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO278" s="7">
         <v>-1</v>
@@ -37341,10 +37509,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F279" s="4">
         <v>0</v>
@@ -37449,7 +37617,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO279" s="7">
         <v>-1</v>
@@ -37466,10 +37634,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F280" s="4">
         <v>0</v>
@@ -37574,7 +37742,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO280" s="7">
         <v>-1</v>
@@ -37591,10 +37759,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F281" s="4">
         <v>0</v>
@@ -37699,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO281" s="7">
         <v>-1</v>
@@ -37716,10 +37884,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F282" s="4">
         <v>0</v>
@@ -37824,7 +37992,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO282" s="7">
         <v>-1</v>
@@ -37841,10 +38009,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F283" s="4">
         <v>0</v>
@@ -37949,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO283" s="7">
         <v>-1</v>
@@ -37966,10 +38134,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F284" s="4">
         <v>0</v>
@@ -38074,7 +38242,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO284" s="7">
         <v>-1</v>
@@ -38091,10 +38259,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F285" s="4">
         <v>0</v>
@@ -38199,7 +38367,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO285" s="7">
         <v>-1</v>
@@ -38216,10 +38384,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F286" s="4">
         <v>0</v>
@@ -38324,7 +38492,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO286" s="7">
         <v>-1</v>
@@ -38341,10 +38509,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F287" s="4">
         <v>0</v>
@@ -38449,7 +38617,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO287" s="7">
         <v>-1</v>
@@ -38466,10 +38634,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F288" s="4">
         <v>0</v>
@@ -38574,7 +38742,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO288" s="7">
         <v>-1</v>
@@ -38591,10 +38759,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F289" s="4">
         <v>0</v>
@@ -38716,10 +38884,10 @@
         <v>6</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -38841,10 +39009,10 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F291" s="4">
         <v>0</v>
@@ -38966,10 +39134,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F292" s="4">
         <v>0</v>
@@ -39074,7 +39242,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO292" s="7">
         <v>-1</v>
@@ -39091,10 +39259,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F293" s="4">
         <v>0</v>
@@ -39199,7 +39367,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO293" s="7">
         <v>-1</v>
@@ -39216,10 +39384,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F294" s="4">
         <v>0</v>
@@ -39324,7 +39492,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO294" s="7">
         <v>-1</v>
@@ -39341,10 +39509,10 @@
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F295" s="4">
         <v>0</v>
@@ -39466,10 +39634,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F296" s="4">
         <v>0</v>
@@ -39591,10 +39759,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F297" s="4">
         <v>0</v>
@@ -39716,10 +39884,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F298" s="4">
         <v>0</v>
@@ -39841,10 +40009,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F299" s="4">
         <v>0</v>
@@ -39966,10 +40134,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F300" s="4">
         <v>0</v>
@@ -40091,10 +40259,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F301" s="4">
         <v>0</v>
@@ -40199,7 +40367,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO301" s="7">
         <v>-1</v>
@@ -40216,10 +40384,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F302" s="4">
         <v>0</v>
@@ -40324,7 +40492,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO302" s="7">
         <v>-1</v>
@@ -40341,10 +40509,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F303" s="4">
         <v>0</v>
@@ -40449,7 +40617,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO303" s="7">
         <v>-1</v>
@@ -40466,10 +40634,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F304" s="4">
         <v>0</v>
@@ -40574,7 +40742,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO304" s="7">
         <v>-1</v>
@@ -40591,10 +40759,10 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F305" s="4">
         <v>0</v>
@@ -40699,7 +40867,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO305" s="7">
         <v>-1</v>
@@ -40716,10 +40884,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F306" s="4">
         <v>0</v>
@@ -40824,7 +40992,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO306" s="7">
         <v>-1</v>
@@ -40841,10 +41009,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -40949,7 +41117,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO307" s="7">
         <v>-1</v>
@@ -40966,10 +41134,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -41074,7 +41242,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO308" s="7">
         <v>-1</v>
@@ -41091,10 +41259,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F309" s="4">
         <v>0</v>
@@ -41199,7 +41367,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO309" s="7">
         <v>-1</v>
@@ -41216,10 +41384,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F310" s="4">
         <v>0</v>
@@ -41324,7 +41492,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO310" s="7">
         <v>-1</v>
@@ -41341,10 +41509,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F311" s="4">
         <v>0</v>
@@ -41449,7 +41617,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO311" s="7">
         <v>-1</v>
@@ -41466,10 +41634,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F312" s="4">
         <v>0</v>
@@ -41574,7 +41742,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO312" s="7">
         <v>-1</v>
@@ -41591,10 +41759,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F313" s="4">
         <v>0</v>
@@ -41699,7 +41867,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO313" s="7">
         <v>-1</v>
@@ -41716,10 +41884,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F314" s="4">
         <v>0</v>
@@ -41824,7 +41992,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO314" s="7">
         <v>-1</v>
@@ -41841,10 +42009,10 @@
         <v>6</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F315" s="4">
         <v>0</v>
@@ -41949,7 +42117,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO315" s="7">
         <v>-1</v>
@@ -41966,10 +42134,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F316" s="4">
         <v>0</v>
@@ -42074,7 +42242,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO316" s="7">
         <v>-1</v>
@@ -42091,10 +42259,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F317" s="4">
         <v>0</v>
@@ -42199,7 +42367,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO317" s="7">
         <v>-1</v>
@@ -42216,10 +42384,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F318" s="4">
         <v>0</v>
@@ -42324,7 +42492,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO318" s="7">
         <v>-1</v>
@@ -42341,10 +42509,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F319" s="4">
         <v>0</v>
@@ -42449,7 +42617,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO319" s="7">
         <v>-1</v>
@@ -42466,10 +42634,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F320" s="4">
         <v>0</v>
@@ -42574,7 +42742,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO320" s="7">
         <v>-1</v>
@@ -42591,10 +42759,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F321" s="4">
         <v>0</v>
@@ -42699,7 +42867,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO321" s="7">
         <v>-1</v>
@@ -42716,10 +42884,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F322" s="4">
         <v>0</v>
@@ -42824,7 +42992,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO322" s="7">
         <v>-1</v>
@@ -42841,10 +43009,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F323" s="4">
         <v>0</v>
@@ -42949,7 +43117,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO323" s="7">
         <v>-1</v>
@@ -42966,10 +43134,10 @@
         <v>4</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F324" s="4">
         <v>0</v>
@@ -43091,10 +43259,10 @@
         <v>4</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F325" s="4">
         <v>0</v>
@@ -43216,10 +43384,10 @@
         <v>2</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F326" s="4">
         <v>0</v>
@@ -43324,7 +43492,7 @@
         <v>0</v>
       </c>
       <c r="AN326" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO326" s="7">
         <v>-1</v>
@@ -43341,10 +43509,10 @@
         <v>5</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F327" s="4">
         <v>0</v>
@@ -43449,7 +43617,7 @@
         <v>0</v>
       </c>
       <c r="AN327" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO327" s="7">
         <v>-1</v>
@@ -43466,10 +43634,10 @@
         <v>6</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F328" s="4">
         <v>0</v>
@@ -43591,10 +43759,10 @@
         <v>3</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F329" s="4">
         <v>0</v>
@@ -43716,10 +43884,10 @@
         <v>7</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F330" s="4">
         <v>0</v>
@@ -43841,10 +44009,10 @@
         <v>3</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F331" s="4">
         <v>0</v>
@@ -43966,10 +44134,10 @@
         <v>7</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F332" s="4">
         <v>0</v>
@@ -44091,10 +44259,10 @@
         <v>5</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
@@ -44199,10 +44367,10 @@
         <v>0</v>
       </c>
       <c r="AN333" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO333" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="11.4" spans="1:41">
@@ -44216,10 +44384,10 @@
         <v>6</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F334" s="4">
         <v>1</v>
@@ -44324,10 +44492,10 @@
         <v>0</v>
       </c>
       <c r="AN334" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO334" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="11.4" spans="1:41">
@@ -44341,10 +44509,10 @@
         <v>8</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F335" s="4">
         <v>0</v>
@@ -44410,7 +44578,7 @@
         <v>0</v>
       </c>
       <c r="AA335" s="4">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AB335" s="4">
         <v>14</v>
@@ -44449,138 +44617,2641 @@
         <v>0</v>
       </c>
       <c r="AN335" s="7" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="AO335" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="336" customFormat="1" ht="14.4" spans="1:41">
+    <row r="336" ht="11.4" spans="1:41">
       <c r="A336" s="4">
         <v>332</v>
       </c>
       <c r="B336" s="4">
         <v>332</v>
       </c>
-      <c r="C336" s="9">
+      <c r="C336" s="4">
         <v>6</v>
       </c>
-      <c r="D336" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="E336" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="F336" s="9">
-        <v>0</v>
-      </c>
-      <c r="G336" s="9">
-        <v>10</v>
-      </c>
-      <c r="H336" s="9">
+      <c r="D336" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F336" s="4">
+        <v>0</v>
+      </c>
+      <c r="G336" s="4">
+        <v>15</v>
+      </c>
+      <c r="H336" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I336" s="4">
+        <v>323</v>
+      </c>
+      <c r="J336" s="4">
+        <v>323</v>
+      </c>
+      <c r="K336" s="4">
+        <v>0</v>
+      </c>
+      <c r="L336" s="4">
+        <v>0</v>
+      </c>
+      <c r="M336" s="4">
+        <v>90</v>
+      </c>
+      <c r="N336" s="4">
+        <v>0</v>
+      </c>
+      <c r="O336" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P336" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q336" s="4">
+        <v>1</v>
+      </c>
+      <c r="R336" s="4">
+        <v>270</v>
+      </c>
+      <c r="S336" s="4">
+        <v>270</v>
+      </c>
+      <c r="T336" s="4">
+        <v>69</v>
+      </c>
+      <c r="U336" s="4">
+        <v>54</v>
+      </c>
+      <c r="V336" s="4">
+        <v>74</v>
+      </c>
+      <c r="W336" s="4">
+        <v>5</v>
+      </c>
+      <c r="X336" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y336" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z336" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA336" s="4">
+        <v>55</v>
+      </c>
+      <c r="AB336" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC336" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD336" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE336" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF336" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG336" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH336" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI336" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ336" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK336" s="4">
+        <v>10</v>
+      </c>
+      <c r="AL336" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM336" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN336" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO336" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="337" customFormat="1" ht="14.4" spans="1:41">
+      <c r="A337" s="4">
+        <v>333</v>
+      </c>
+      <c r="B337" s="4">
+        <v>333</v>
+      </c>
+      <c r="C337" s="9">
+        <v>6</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F337" s="9">
+        <v>0</v>
+      </c>
+      <c r="G337" s="9">
+        <v>10</v>
+      </c>
+      <c r="H337" s="9">
         <v>2250</v>
       </c>
-      <c r="I336" s="9">
+      <c r="I337" s="9">
         <v>200</v>
       </c>
-      <c r="J336" s="9">
+      <c r="J337" s="9">
         <v>200</v>
       </c>
-      <c r="K336" s="9">
-        <v>0</v>
-      </c>
-      <c r="L336" s="9">
-        <v>0</v>
-      </c>
-      <c r="M336" s="9">
+      <c r="K337" s="9">
+        <v>0</v>
+      </c>
+      <c r="L337" s="9">
+        <v>0</v>
+      </c>
+      <c r="M337" s="9">
         <v>90</v>
       </c>
-      <c r="N336" s="9">
-        <v>0</v>
-      </c>
-      <c r="O336" s="9">
-        <v>-1</v>
-      </c>
-      <c r="P336" s="9">
-        <v>-1</v>
-      </c>
-      <c r="Q336" s="9">
+      <c r="N337" s="9">
+        <v>0</v>
+      </c>
+      <c r="O337" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P337" s="9">
+        <v>-1</v>
+      </c>
+      <c r="Q337" s="9">
         <v>1</v>
       </c>
-      <c r="R336" s="9">
+      <c r="R337" s="9">
         <v>150</v>
       </c>
-      <c r="S336" s="9">
+      <c r="S337" s="9">
         <v>150</v>
       </c>
-      <c r="T336" s="9">
+      <c r="T337" s="9">
         <v>70</v>
       </c>
-      <c r="U336" s="9">
+      <c r="U337" s="9">
         <v>50</v>
       </c>
-      <c r="V336" s="9">
+      <c r="V337" s="9">
         <v>50</v>
       </c>
-      <c r="W336" s="9">
-        <v>0</v>
-      </c>
-      <c r="X336" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y336" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA336" s="9">
+      <c r="W337" s="9">
+        <v>0</v>
+      </c>
+      <c r="X337" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y337" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA337" s="9">
         <v>50</v>
       </c>
-      <c r="AB336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE336" s="9">
-        <v>10</v>
-      </c>
-      <c r="AF336" s="9">
+      <c r="AB337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE337" s="9">
+        <v>10</v>
+      </c>
+      <c r="AF337" s="9">
         <v>20</v>
       </c>
-      <c r="AG336" s="9">
+      <c r="AG337" s="9">
         <v>50</v>
       </c>
-      <c r="AH336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK336" s="9">
+      <c r="AH337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK337" s="9">
         <v>60</v>
       </c>
-      <c r="AL336" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AM336" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN336" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="AO336" s="11" t="s">
-        <v>501</v>
+      <c r="AL337" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AM337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN337" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="AO337" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="338" ht="11.4" spans="1:41">
+      <c r="A338" s="4">
+        <v>334</v>
+      </c>
+      <c r="B338" s="4">
+        <v>334</v>
+      </c>
+      <c r="C338" s="4">
+        <v>7</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F338" s="4">
+        <v>0</v>
+      </c>
+      <c r="G338" s="4">
+        <v>15</v>
+      </c>
+      <c r="H338" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I338" s="4">
+        <v>344</v>
+      </c>
+      <c r="J338" s="4">
+        <v>344</v>
+      </c>
+      <c r="K338" s="4">
+        <v>0</v>
+      </c>
+      <c r="L338" s="4">
+        <v>0</v>
+      </c>
+      <c r="M338" s="4">
+        <v>90</v>
+      </c>
+      <c r="N338" s="4">
+        <v>0</v>
+      </c>
+      <c r="O338" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P338" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q338" s="4">
+        <v>1</v>
+      </c>
+      <c r="R338" s="4">
+        <v>296</v>
+      </c>
+      <c r="S338" s="4">
+        <v>296</v>
+      </c>
+      <c r="T338" s="4">
+        <v>59</v>
+      </c>
+      <c r="U338" s="4">
+        <v>54</v>
+      </c>
+      <c r="V338" s="4">
+        <v>59</v>
+      </c>
+      <c r="W338" s="4">
+        <v>4</v>
+      </c>
+      <c r="X338" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y338" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z338" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA338" s="4">
+        <v>14</v>
+      </c>
+      <c r="AB338" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC338" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD338" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE338" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF338" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG338" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH338" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI338" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ338" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK338" s="4">
+        <v>10</v>
+      </c>
+      <c r="AL338" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM338" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN338" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AO338" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="339" ht="11.4" spans="1:41">
+      <c r="A339" s="4">
+        <v>335</v>
+      </c>
+      <c r="B339" s="4">
+        <v>335</v>
+      </c>
+      <c r="C339" s="4">
+        <v>8</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F339" s="4">
+        <v>0</v>
+      </c>
+      <c r="G339" s="4">
+        <v>15</v>
+      </c>
+      <c r="H339" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I339" s="4">
+        <v>395</v>
+      </c>
+      <c r="J339" s="4">
+        <v>395</v>
+      </c>
+      <c r="K339" s="4">
+        <v>0</v>
+      </c>
+      <c r="L339" s="4">
+        <v>0</v>
+      </c>
+      <c r="M339" s="4">
+        <v>90</v>
+      </c>
+      <c r="N339" s="4">
+        <v>0</v>
+      </c>
+      <c r="O339" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P339" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q339" s="4">
+        <v>1</v>
+      </c>
+      <c r="R339" s="4">
+        <v>246</v>
+      </c>
+      <c r="S339" s="4">
+        <v>246</v>
+      </c>
+      <c r="T339" s="4">
+        <v>80</v>
+      </c>
+      <c r="U339" s="4">
+        <v>50</v>
+      </c>
+      <c r="V339" s="4">
+        <v>80</v>
+      </c>
+      <c r="W339" s="4">
+        <v>3</v>
+      </c>
+      <c r="X339" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y339" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z339" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA339" s="4">
+        <v>13</v>
+      </c>
+      <c r="AB339" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC339" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD339" s="4">
+        <v>35</v>
+      </c>
+      <c r="AE339" s="4">
+        <v>35</v>
+      </c>
+      <c r="AF339" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG339" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH339" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI339" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ339" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK339" s="4">
+        <v>10</v>
+      </c>
+      <c r="AL339" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM339" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN339" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="AO339" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="340" ht="11.4" spans="1:41">
+      <c r="A340" s="4">
+        <v>336</v>
+      </c>
+      <c r="B340" s="4">
+        <v>336</v>
+      </c>
+      <c r="C340" s="4">
+        <v>7</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F340" s="4">
+        <v>0</v>
+      </c>
+      <c r="G340" s="4">
+        <v>15</v>
+      </c>
+      <c r="H340" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I340" s="4">
+        <v>350</v>
+      </c>
+      <c r="J340" s="4">
+        <v>350</v>
+      </c>
+      <c r="K340" s="4">
+        <v>0</v>
+      </c>
+      <c r="L340" s="4">
+        <v>0</v>
+      </c>
+      <c r="M340" s="4">
+        <v>90</v>
+      </c>
+      <c r="N340" s="4">
+        <v>0</v>
+      </c>
+      <c r="O340" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P340" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q340" s="4">
+        <v>1</v>
+      </c>
+      <c r="R340" s="4">
+        <v>239</v>
+      </c>
+      <c r="S340" s="4">
+        <v>239</v>
+      </c>
+      <c r="T340" s="4">
+        <v>84</v>
+      </c>
+      <c r="U340" s="4">
+        <v>50</v>
+      </c>
+      <c r="V340" s="4">
+        <v>81</v>
+      </c>
+      <c r="W340" s="4">
+        <v>3</v>
+      </c>
+      <c r="X340" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y340" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z340" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA340" s="4">
+        <v>20</v>
+      </c>
+      <c r="AB340" s="4">
+        <v>60</v>
+      </c>
+      <c r="AC340" s="4">
+        <v>15</v>
+      </c>
+      <c r="AD340" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE340" s="4">
+        <v>10</v>
+      </c>
+      <c r="AF340" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG340" s="4">
+        <v>80</v>
+      </c>
+      <c r="AH340" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI340" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ340" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK340" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL340" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM340" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN340" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO340" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" ht="11.4" spans="1:41">
+      <c r="A341" s="4">
+        <v>337</v>
+      </c>
+      <c r="B341" s="4">
+        <v>337</v>
+      </c>
+      <c r="C341" s="4">
+        <v>7</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F341" s="4">
+        <v>0</v>
+      </c>
+      <c r="G341" s="4">
+        <v>15</v>
+      </c>
+      <c r="H341" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I341" s="4">
+        <v>259</v>
+      </c>
+      <c r="J341" s="4">
+        <v>259</v>
+      </c>
+      <c r="K341" s="4">
+        <v>0</v>
+      </c>
+      <c r="L341" s="4">
+        <v>0</v>
+      </c>
+      <c r="M341" s="4">
+        <v>90</v>
+      </c>
+      <c r="N341" s="4">
+        <v>0</v>
+      </c>
+      <c r="O341" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P341" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q341" s="4">
+        <v>1</v>
+      </c>
+      <c r="R341" s="4">
+        <v>266</v>
+      </c>
+      <c r="S341" s="4">
+        <v>266</v>
+      </c>
+      <c r="T341" s="4">
+        <v>57</v>
+      </c>
+      <c r="U341" s="4">
+        <v>49</v>
+      </c>
+      <c r="V341" s="4">
+        <v>57</v>
+      </c>
+      <c r="W341" s="4">
+        <v>5</v>
+      </c>
+      <c r="X341" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y341" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z341" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA341" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB341" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC341" s="4">
+        <v>16</v>
+      </c>
+      <c r="AD341" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE341" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF341" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG341" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH341" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI341" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ341" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK341" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL341" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM341" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN341" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO341" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="342" ht="11.4" spans="1:41">
+      <c r="A342" s="4">
+        <v>338</v>
+      </c>
+      <c r="B342" s="4">
+        <v>338</v>
+      </c>
+      <c r="C342" s="4">
+        <v>5</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F342" s="4">
+        <v>0</v>
+      </c>
+      <c r="G342" s="4">
+        <v>15</v>
+      </c>
+      <c r="H342" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I342" s="4">
+        <v>263</v>
+      </c>
+      <c r="J342" s="4">
+        <v>263</v>
+      </c>
+      <c r="K342" s="4">
+        <v>0</v>
+      </c>
+      <c r="L342" s="4">
+        <v>0</v>
+      </c>
+      <c r="M342" s="4">
+        <v>90</v>
+      </c>
+      <c r="N342" s="4">
+        <v>0</v>
+      </c>
+      <c r="O342" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P342" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q342" s="4">
+        <v>1</v>
+      </c>
+      <c r="R342" s="4">
+        <v>268</v>
+      </c>
+      <c r="S342" s="4">
+        <v>268</v>
+      </c>
+      <c r="T342" s="4">
+        <v>66</v>
+      </c>
+      <c r="U342" s="4">
+        <v>38</v>
+      </c>
+      <c r="V342" s="4">
+        <v>36</v>
+      </c>
+      <c r="W342" s="4">
+        <v>4</v>
+      </c>
+      <c r="X342" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y342" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z342" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA342" s="4">
+        <v>13</v>
+      </c>
+      <c r="AB342" s="4">
+        <v>63</v>
+      </c>
+      <c r="AC342" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD342" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE342" s="4">
+        <v>16</v>
+      </c>
+      <c r="AF342" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG342" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH342" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI342" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ342" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK342" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL342" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM342" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN342" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO342" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="343" ht="11.4" spans="1:41">
+      <c r="A343" s="4">
+        <v>339</v>
+      </c>
+      <c r="B343" s="4">
+        <v>339</v>
+      </c>
+      <c r="C343" s="4">
+        <v>5</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F343" s="4">
+        <v>0</v>
+      </c>
+      <c r="G343" s="4">
+        <v>15</v>
+      </c>
+      <c r="H343" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I343" s="4">
+        <v>272</v>
+      </c>
+      <c r="J343" s="4">
+        <v>272</v>
+      </c>
+      <c r="K343" s="4">
+        <v>0</v>
+      </c>
+      <c r="L343" s="4">
+        <v>0</v>
+      </c>
+      <c r="M343" s="4">
+        <v>90</v>
+      </c>
+      <c r="N343" s="4">
+        <v>0</v>
+      </c>
+      <c r="O343" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P343" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q343" s="4">
+        <v>1</v>
+      </c>
+      <c r="R343" s="4">
+        <v>280</v>
+      </c>
+      <c r="S343" s="4">
+        <v>280</v>
+      </c>
+      <c r="T343" s="4">
+        <v>66</v>
+      </c>
+      <c r="U343" s="4">
+        <v>60</v>
+      </c>
+      <c r="V343" s="4">
+        <v>72</v>
+      </c>
+      <c r="W343" s="4">
+        <v>4</v>
+      </c>
+      <c r="X343" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y343" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z343" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA343" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB343" s="4">
+        <v>53</v>
+      </c>
+      <c r="AC343" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD343" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE343" s="4">
+        <v>24</v>
+      </c>
+      <c r="AF343" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG343" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH343" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI343" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ343" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK343" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL343" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM343" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN343" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="AO343" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="344" ht="11.4" spans="1:41">
+      <c r="A344" s="4">
+        <v>340</v>
+      </c>
+      <c r="B344" s="4">
+        <v>340</v>
+      </c>
+      <c r="C344" s="4">
+        <v>8</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F344" s="4">
+        <v>0</v>
+      </c>
+      <c r="G344" s="4">
+        <v>15</v>
+      </c>
+      <c r="H344" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I344" s="4">
+        <v>395</v>
+      </c>
+      <c r="J344" s="4">
+        <v>395</v>
+      </c>
+      <c r="K344" s="4">
+        <v>0</v>
+      </c>
+      <c r="L344" s="4">
+        <v>0</v>
+      </c>
+      <c r="M344" s="4">
+        <v>90</v>
+      </c>
+      <c r="N344" s="4">
+        <v>0</v>
+      </c>
+      <c r="O344" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P344" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q344" s="4">
+        <v>1</v>
+      </c>
+      <c r="R344" s="4">
+        <v>263</v>
+      </c>
+      <c r="S344" s="4">
+        <v>263</v>
+      </c>
+      <c r="T344" s="4">
+        <v>65</v>
+      </c>
+      <c r="U344" s="4">
+        <v>57</v>
+      </c>
+      <c r="V344" s="4">
+        <v>55</v>
+      </c>
+      <c r="W344" s="4">
+        <v>4</v>
+      </c>
+      <c r="X344" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y344" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z344" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA344" s="4">
+        <v>53</v>
+      </c>
+      <c r="AB344" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC344" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD344" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE344" s="4">
+        <v>24</v>
+      </c>
+      <c r="AF344" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG344" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH344" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI344" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ344" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK344" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL344" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM344" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN344" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="AO344" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="345" ht="11.4" spans="1:41">
+      <c r="A345" s="4">
+        <v>341</v>
+      </c>
+      <c r="B345" s="4">
+        <v>341</v>
+      </c>
+      <c r="C345" s="4">
+        <v>6</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F345" s="4">
+        <v>0</v>
+      </c>
+      <c r="G345" s="4">
+        <v>15</v>
+      </c>
+      <c r="H345" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I345" s="4">
+        <v>202</v>
+      </c>
+      <c r="J345" s="4">
+        <v>202</v>
+      </c>
+      <c r="K345" s="4">
+        <v>0</v>
+      </c>
+      <c r="L345" s="4">
+        <v>0</v>
+      </c>
+      <c r="M345" s="4">
+        <v>90</v>
+      </c>
+      <c r="N345" s="4">
+        <v>0</v>
+      </c>
+      <c r="O345" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P345" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q345" s="4">
+        <v>1</v>
+      </c>
+      <c r="R345" s="4">
+        <v>255</v>
+      </c>
+      <c r="S345" s="4">
+        <v>255</v>
+      </c>
+      <c r="T345" s="4">
+        <v>65</v>
+      </c>
+      <c r="U345" s="4">
+        <v>53</v>
+      </c>
+      <c r="V345" s="4">
+        <v>66</v>
+      </c>
+      <c r="W345" s="4">
+        <v>2</v>
+      </c>
+      <c r="X345" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y345" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z345" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA345" s="4">
+        <v>14</v>
+      </c>
+      <c r="AB345" s="4">
+        <v>43</v>
+      </c>
+      <c r="AC345" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD345" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE345" s="4">
+        <v>22</v>
+      </c>
+      <c r="AF345" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG345" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH345" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI345" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ345" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK345" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL345" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM345" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN345" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO345" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="346" ht="11.4" spans="1:41">
+      <c r="A346" s="4">
+        <v>342</v>
+      </c>
+      <c r="B346" s="4">
+        <v>342</v>
+      </c>
+      <c r="C346" s="4">
+        <v>4</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F346" s="4">
+        <v>0</v>
+      </c>
+      <c r="G346" s="4">
+        <v>8</v>
+      </c>
+      <c r="H346" s="4">
+        <v>1400</v>
+      </c>
+      <c r="I346" s="4">
+        <v>148</v>
+      </c>
+      <c r="J346" s="4">
+        <v>148</v>
+      </c>
+      <c r="K346" s="4">
+        <v>0</v>
+      </c>
+      <c r="L346" s="4">
+        <v>0</v>
+      </c>
+      <c r="M346" s="4">
+        <v>90</v>
+      </c>
+      <c r="N346" s="4">
+        <v>0</v>
+      </c>
+      <c r="O346" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P346" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q346" s="4">
+        <v>1</v>
+      </c>
+      <c r="R346" s="4">
+        <v>221</v>
+      </c>
+      <c r="S346" s="4">
+        <v>221</v>
+      </c>
+      <c r="T346" s="4">
+        <v>46</v>
+      </c>
+      <c r="U346" s="4">
+        <v>47</v>
+      </c>
+      <c r="V346" s="4">
+        <v>58</v>
+      </c>
+      <c r="W346" s="4">
+        <v>1</v>
+      </c>
+      <c r="X346" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y346" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z346" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA346" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB346" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC346" s="4">
+        <v>18</v>
+      </c>
+      <c r="AD346" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE346" s="4">
+        <v>12</v>
+      </c>
+      <c r="AF346" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG346" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH346" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI346" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ346" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK346" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL346" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM346" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN346" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO346" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="347" ht="11.4" spans="1:41">
+      <c r="A347" s="4">
+        <v>343</v>
+      </c>
+      <c r="B347" s="4">
+        <v>343</v>
+      </c>
+      <c r="C347" s="4">
+        <v>4</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F347" s="4">
+        <v>0</v>
+      </c>
+      <c r="G347" s="4">
+        <v>15</v>
+      </c>
+      <c r="H347" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I347" s="4">
+        <v>230</v>
+      </c>
+      <c r="J347" s="4">
+        <v>230</v>
+      </c>
+      <c r="K347" s="4">
+        <v>0</v>
+      </c>
+      <c r="L347" s="4">
+        <v>0</v>
+      </c>
+      <c r="M347" s="4">
+        <v>90</v>
+      </c>
+      <c r="N347" s="4">
+        <v>0</v>
+      </c>
+      <c r="O347" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P347" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q347" s="4">
+        <v>0</v>
+      </c>
+      <c r="R347" s="4">
+        <v>299</v>
+      </c>
+      <c r="S347" s="4">
+        <v>299</v>
+      </c>
+      <c r="T347" s="4">
+        <v>62</v>
+      </c>
+      <c r="U347" s="4">
+        <v>72</v>
+      </c>
+      <c r="V347" s="4">
+        <v>62</v>
+      </c>
+      <c r="W347" s="4">
+        <v>2</v>
+      </c>
+      <c r="X347" s="4">
+        <v>69</v>
+      </c>
+      <c r="Y347" s="4">
+        <v>65</v>
+      </c>
+      <c r="Z347" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA347" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB347" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC347" s="4">
+        <v>16</v>
+      </c>
+      <c r="AD347" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE347" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF347" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG347" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH347" s="4">
+        <v>60</v>
+      </c>
+      <c r="AI347" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ347" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK347" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL347" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM347" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN347" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AO347" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="348" ht="11.4" spans="1:41">
+      <c r="A348" s="4">
+        <v>344</v>
+      </c>
+      <c r="B348" s="4">
+        <v>344</v>
+      </c>
+      <c r="C348" s="4">
+        <v>8</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F348" s="4">
+        <v>0</v>
+      </c>
+      <c r="G348" s="4">
+        <v>15</v>
+      </c>
+      <c r="H348" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I348" s="4">
+        <v>404</v>
+      </c>
+      <c r="J348" s="4">
+        <v>404</v>
+      </c>
+      <c r="K348" s="4">
+        <v>0</v>
+      </c>
+      <c r="L348" s="4">
+        <v>0</v>
+      </c>
+      <c r="M348" s="4">
+        <v>90</v>
+      </c>
+      <c r="N348" s="4">
+        <v>0</v>
+      </c>
+      <c r="O348" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P348" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q348" s="4">
+        <v>0</v>
+      </c>
+      <c r="R348" s="4">
+        <v>232</v>
+      </c>
+      <c r="S348" s="4">
+        <v>232</v>
+      </c>
+      <c r="T348" s="4">
+        <v>59</v>
+      </c>
+      <c r="U348" s="4">
+        <v>52</v>
+      </c>
+      <c r="V348" s="4">
+        <v>46</v>
+      </c>
+      <c r="W348" s="4">
+        <v>6</v>
+      </c>
+      <c r="X348" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y348" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z348" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA348" s="4">
+        <v>14</v>
+      </c>
+      <c r="AB348" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC348" s="4">
+        <v>15</v>
+      </c>
+      <c r="AD348" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE348" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF348" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG348" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH348" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI348" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ348" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK348" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL348" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM348" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN348" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO348" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="349" ht="11.4" spans="1:41">
+      <c r="A349" s="4">
+        <v>345</v>
+      </c>
+      <c r="B349" s="4">
+        <v>345</v>
+      </c>
+      <c r="C349" s="4">
+        <v>5</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F349" s="4">
+        <v>0</v>
+      </c>
+      <c r="G349" s="4">
+        <v>10</v>
+      </c>
+      <c r="H349" s="4">
+        <v>2250</v>
+      </c>
+      <c r="I349" s="4">
+        <v>163</v>
+      </c>
+      <c r="J349" s="4">
+        <v>163</v>
+      </c>
+      <c r="K349" s="4">
+        <v>0</v>
+      </c>
+      <c r="L349" s="4">
+        <v>0</v>
+      </c>
+      <c r="M349" s="4">
+        <v>90</v>
+      </c>
+      <c r="N349" s="4">
+        <v>0</v>
+      </c>
+      <c r="O349" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P349" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q349" s="4">
+        <v>0</v>
+      </c>
+      <c r="R349" s="4">
+        <v>158</v>
+      </c>
+      <c r="S349" s="4">
+        <v>158</v>
+      </c>
+      <c r="T349" s="4">
+        <v>56</v>
+      </c>
+      <c r="U349" s="4">
+        <v>60</v>
+      </c>
+      <c r="V349" s="4">
+        <v>56</v>
+      </c>
+      <c r="W349" s="4">
+        <v>3</v>
+      </c>
+      <c r="X349" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y349" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z349" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA349" s="4">
+        <v>13</v>
+      </c>
+      <c r="AB349" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC349" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD349" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE349" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF349" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG349" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH349" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI349" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ349" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK349" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL349" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM349" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN349" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="AO349" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="350" ht="11.4" spans="1:41">
+      <c r="A350" s="4">
+        <v>346</v>
+      </c>
+      <c r="B350" s="4">
+        <v>346</v>
+      </c>
+      <c r="C350" s="4">
+        <v>7</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F350" s="4">
+        <v>0</v>
+      </c>
+      <c r="G350" s="4">
+        <v>15</v>
+      </c>
+      <c r="H350" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I350" s="4">
+        <v>353</v>
+      </c>
+      <c r="J350" s="4">
+        <v>353</v>
+      </c>
+      <c r="K350" s="4">
+        <v>0</v>
+      </c>
+      <c r="L350" s="4">
+        <v>0</v>
+      </c>
+      <c r="M350" s="4">
+        <v>90</v>
+      </c>
+      <c r="N350" s="4">
+        <v>0</v>
+      </c>
+      <c r="O350" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P350" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q350" s="4">
+        <v>1</v>
+      </c>
+      <c r="R350" s="4">
+        <v>263</v>
+      </c>
+      <c r="S350" s="4">
+        <v>263</v>
+      </c>
+      <c r="T350" s="4">
+        <v>61</v>
+      </c>
+      <c r="U350" s="4">
+        <v>51</v>
+      </c>
+      <c r="V350" s="4">
+        <v>63</v>
+      </c>
+      <c r="W350" s="4">
+        <v>4</v>
+      </c>
+      <c r="X350" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y350" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z350" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA350" s="4">
+        <v>13</v>
+      </c>
+      <c r="AB350" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC350" s="4">
+        <v>14</v>
+      </c>
+      <c r="AD350" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE350" s="4">
+        <v>12</v>
+      </c>
+      <c r="AF350" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG350" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH350" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI350" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ350" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK350" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL350" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM350" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN350" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO350" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="351" ht="11.4" spans="1:41">
+      <c r="A351" s="4">
+        <v>347</v>
+      </c>
+      <c r="B351" s="4">
+        <v>347</v>
+      </c>
+      <c r="C351" s="4">
+        <v>5</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F351" s="4">
+        <v>0</v>
+      </c>
+      <c r="G351" s="4">
+        <v>15</v>
+      </c>
+      <c r="H351" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I351" s="4">
+        <v>275</v>
+      </c>
+      <c r="J351" s="4">
+        <v>275</v>
+      </c>
+      <c r="K351" s="4">
+        <v>0</v>
+      </c>
+      <c r="L351" s="4">
+        <v>0</v>
+      </c>
+      <c r="M351" s="4">
+        <v>90</v>
+      </c>
+      <c r="N351" s="4">
+        <v>0</v>
+      </c>
+      <c r="O351" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P351" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q351" s="4">
+        <v>1</v>
+      </c>
+      <c r="R351" s="4">
+        <v>276</v>
+      </c>
+      <c r="S351" s="4">
+        <v>276</v>
+      </c>
+      <c r="T351" s="4">
+        <v>62</v>
+      </c>
+      <c r="U351" s="4">
+        <v>57</v>
+      </c>
+      <c r="V351" s="4">
+        <v>57</v>
+      </c>
+      <c r="W351" s="4">
+        <v>3</v>
+      </c>
+      <c r="X351" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y351" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z351" s="4">
+        <v>35</v>
+      </c>
+      <c r="AA351" s="4">
+        <v>35</v>
+      </c>
+      <c r="AB351" s="4">
+        <v>15</v>
+      </c>
+      <c r="AC351" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD351" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE351" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF351" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG351" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH351" s="4">
+        <v>75</v>
+      </c>
+      <c r="AI351" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ351" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK351" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL351" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM351" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN351" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO351" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="352" ht="11.4" spans="1:41">
+      <c r="A352" s="4">
+        <v>348</v>
+      </c>
+      <c r="B352" s="4">
+        <v>348</v>
+      </c>
+      <c r="C352" s="4">
+        <v>7</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F352" s="4">
+        <v>0</v>
+      </c>
+      <c r="G352" s="4">
+        <v>15</v>
+      </c>
+      <c r="H352" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I352" s="4">
+        <v>353</v>
+      </c>
+      <c r="J352" s="4">
+        <v>353</v>
+      </c>
+      <c r="K352" s="4">
+        <v>0</v>
+      </c>
+      <c r="L352" s="4">
+        <v>0</v>
+      </c>
+      <c r="M352" s="4">
+        <v>90</v>
+      </c>
+      <c r="N352" s="4">
+        <v>0</v>
+      </c>
+      <c r="O352" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P352" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q352" s="4">
+        <v>1</v>
+      </c>
+      <c r="R352" s="4">
+        <v>220</v>
+      </c>
+      <c r="S352" s="4">
+        <v>220</v>
+      </c>
+      <c r="T352" s="4">
+        <v>69</v>
+      </c>
+      <c r="U352" s="4">
+        <v>59</v>
+      </c>
+      <c r="V352" s="4">
+        <v>69</v>
+      </c>
+      <c r="W352" s="4">
+        <v>3</v>
+      </c>
+      <c r="X352" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y352" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z352" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA352" s="4">
+        <v>32</v>
+      </c>
+      <c r="AB352" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC352" s="4">
+        <v>14</v>
+      </c>
+      <c r="AD352" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE352" s="4">
+        <v>15</v>
+      </c>
+      <c r="AF352" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG352" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH352" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI352" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ352" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK352" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL352" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM352" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN352" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO352" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="353" ht="11.4" spans="1:41">
+      <c r="A353" s="4">
+        <v>349</v>
+      </c>
+      <c r="B353" s="4">
+        <v>349</v>
+      </c>
+      <c r="C353" s="4">
+        <v>5</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0</v>
+      </c>
+      <c r="G353" s="4">
+        <v>15</v>
+      </c>
+      <c r="H353" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I353" s="4">
+        <v>278</v>
+      </c>
+      <c r="J353" s="4">
+        <v>278</v>
+      </c>
+      <c r="K353" s="4">
+        <v>0</v>
+      </c>
+      <c r="L353" s="4">
+        <v>0</v>
+      </c>
+      <c r="M353" s="4">
+        <v>90</v>
+      </c>
+      <c r="N353" s="4">
+        <v>0</v>
+      </c>
+      <c r="O353" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P353" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q353" s="4">
+        <v>1</v>
+      </c>
+      <c r="R353" s="4">
+        <v>271</v>
+      </c>
+      <c r="S353" s="4">
+        <v>271</v>
+      </c>
+      <c r="T353" s="4">
+        <v>71</v>
+      </c>
+      <c r="U353" s="4">
+        <v>50</v>
+      </c>
+      <c r="V353" s="4">
+        <v>65</v>
+      </c>
+      <c r="W353" s="4">
+        <v>6</v>
+      </c>
+      <c r="X353" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y353" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z353" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA353" s="4">
+        <v>53</v>
+      </c>
+      <c r="AB353" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC353" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD353" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE353" s="4">
+        <v>11</v>
+      </c>
+      <c r="AF353" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG353" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH353" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI353" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ353" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK353" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL353" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM353" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN353" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AO353" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="354" ht="11.4" spans="1:41">
+      <c r="A354" s="4">
+        <v>350</v>
+      </c>
+      <c r="B354" s="4">
+        <v>350</v>
+      </c>
+      <c r="C354" s="4">
+        <v>7</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F354" s="4">
+        <v>0</v>
+      </c>
+      <c r="G354" s="4">
+        <v>15</v>
+      </c>
+      <c r="H354" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I354" s="4">
+        <v>300</v>
+      </c>
+      <c r="J354" s="4">
+        <v>300</v>
+      </c>
+      <c r="K354" s="4">
+        <v>0</v>
+      </c>
+      <c r="L354" s="4">
+        <v>0</v>
+      </c>
+      <c r="M354" s="4">
+        <v>90</v>
+      </c>
+      <c r="N354" s="4">
+        <v>0</v>
+      </c>
+      <c r="O354" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P354" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q354" s="4">
+        <v>1</v>
+      </c>
+      <c r="R354" s="4">
+        <v>252</v>
+      </c>
+      <c r="S354" s="4">
+        <v>252</v>
+      </c>
+      <c r="T354" s="4">
+        <v>65</v>
+      </c>
+      <c r="U354" s="4">
+        <v>50</v>
+      </c>
+      <c r="V354" s="4">
+        <v>65</v>
+      </c>
+      <c r="W354" s="4">
+        <v>1</v>
+      </c>
+      <c r="X354" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y354" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA354" s="4">
+        <v>31</v>
+      </c>
+      <c r="AB354" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC354" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD354" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE354" s="4">
+        <v>16</v>
+      </c>
+      <c r="AF354" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG354" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK354" s="4">
+        <v>60</v>
+      </c>
+      <c r="AL354" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AO354" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="355" ht="11.4" spans="1:41">
+      <c r="A355" s="4">
+        <v>351</v>
+      </c>
+      <c r="B355" s="4">
+        <v>351</v>
+      </c>
+      <c r="C355" s="4">
+        <v>5</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F355" s="4">
+        <v>1</v>
+      </c>
+      <c r="G355" s="4">
+        <v>1</v>
+      </c>
+      <c r="H355" s="4">
+        <v>0</v>
+      </c>
+      <c r="I355" s="4">
+        <v>38</v>
+      </c>
+      <c r="J355" s="4">
+        <v>38</v>
+      </c>
+      <c r="K355" s="4">
+        <v>0</v>
+      </c>
+      <c r="L355" s="4">
+        <v>0</v>
+      </c>
+      <c r="M355" s="4">
+        <v>100</v>
+      </c>
+      <c r="N355" s="4">
+        <v>0</v>
+      </c>
+      <c r="O355" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P355" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q355" s="4">
+        <v>0</v>
+      </c>
+      <c r="R355" s="4">
+        <v>26</v>
+      </c>
+      <c r="S355" s="4">
+        <v>26</v>
+      </c>
+      <c r="T355" s="4">
+        <v>27</v>
+      </c>
+      <c r="U355" s="4">
+        <v>27</v>
+      </c>
+      <c r="V355" s="4">
+        <v>27</v>
+      </c>
+      <c r="W355" s="4">
+        <v>20</v>
+      </c>
+      <c r="X355" s="4">
+        <v>17</v>
+      </c>
+      <c r="Y355" s="4">
+        <v>19</v>
+      </c>
+      <c r="Z355" s="4">
+        <v>18</v>
+      </c>
+      <c r="AA355" s="4">
+        <v>30</v>
+      </c>
+      <c r="AB355" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC355" s="4">
+        <v>26</v>
+      </c>
+      <c r="AD355" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE355" s="4">
+        <v>25</v>
+      </c>
+      <c r="AF355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG355" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK355" s="4">
+        <v>39</v>
+      </c>
+      <c r="AL355" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO355" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" ht="11.4" spans="1:41">
+      <c r="A356" s="4">
+        <v>352</v>
+      </c>
+      <c r="B356" s="4">
+        <v>352</v>
+      </c>
+      <c r="C356" s="4">
+        <v>9</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F356" s="4">
+        <v>0</v>
+      </c>
+      <c r="G356" s="4">
+        <v>15</v>
+      </c>
+      <c r="H356" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I356" s="4">
+        <v>255</v>
+      </c>
+      <c r="J356" s="4">
+        <v>255</v>
+      </c>
+      <c r="K356" s="4">
+        <v>0</v>
+      </c>
+      <c r="L356" s="4">
+        <v>0</v>
+      </c>
+      <c r="M356" s="4">
+        <v>90</v>
+      </c>
+      <c r="N356" s="4">
+        <v>0</v>
+      </c>
+      <c r="O356" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P356" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q356" s="4">
+        <v>0</v>
+      </c>
+      <c r="R356" s="4">
+        <v>120</v>
+      </c>
+      <c r="S356" s="4">
+        <v>120</v>
+      </c>
+      <c r="T356" s="4">
+        <v>80</v>
+      </c>
+      <c r="U356" s="4">
+        <v>20</v>
+      </c>
+      <c r="V356" s="4">
+        <v>80</v>
+      </c>
+      <c r="W356" s="4">
+        <v>0</v>
+      </c>
+      <c r="X356" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y356" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="4">
+        <v>80</v>
+      </c>
+      <c r="AB356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AF356" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH356" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI356" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ356" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK356" s="4">
+        <v>10</v>
+      </c>
+      <c r="AL356" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM356" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO356" s="7">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AP354">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AP$354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AP$353</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1524,6 +1524,15 @@
     <t>陌生人辛</t>
   </si>
   <si>
+    <t>翡冷翠</t>
+  </si>
+  <si>
+    <t>人见人爱</t>
+  </si>
+  <si>
+    <t>90,0</t>
+  </si>
+  <si>
     <t>恒山精英</t>
   </si>
   <si>
@@ -1542,6 +1551,156 @@
     <t>8,15</t>
   </si>
   <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>140,600</t>
+  </si>
+  <si>
+    <t>青城精英</t>
+  </si>
+  <si>
+    <t>32,800</t>
+  </si>
+  <si>
+    <t>11,3|3,3|15,5</t>
+  </si>
+  <si>
+    <t>五毒精英</t>
+  </si>
+  <si>
+    <t>77,800</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>雪山精英</t>
+  </si>
+  <si>
+    <t>44,400</t>
+  </si>
+  <si>
+    <t>7,3|24,3|12,4</t>
+  </si>
+  <si>
+    <t>星宿精英</t>
+  </si>
+  <si>
+    <t>72,800|27,0</t>
+  </si>
+  <si>
+    <t>22,3|24,5</t>
+  </si>
+  <si>
+    <t>泰山精英</t>
+  </si>
+  <si>
+    <t>45,500</t>
+  </si>
+  <si>
+    <t>3,5|22,5|12,5</t>
+  </si>
+  <si>
+    <t>衡山精英</t>
+  </si>
+  <si>
+    <t>46,500</t>
+  </si>
+  <si>
+    <t>1,2|4,5|12,5</t>
+  </si>
+  <si>
+    <t>神龙精英</t>
+  </si>
+  <si>
+    <t>86,400</t>
+  </si>
+  <si>
+    <t>1,5|14,10</t>
+  </si>
+  <si>
+    <t>昆仑精英</t>
+  </si>
+  <si>
+    <t>崆峒精英</t>
+  </si>
+  <si>
+    <t>4,5|24,5|12,5</t>
+  </si>
+  <si>
+    <t>武当精英</t>
+  </si>
+  <si>
+    <t>41,900|58,0</t>
+  </si>
+  <si>
+    <t>6,10|1,5|23,5|14,5</t>
+  </si>
+  <si>
+    <t>华山精英</t>
+  </si>
+  <si>
+    <t>37,800</t>
+  </si>
+  <si>
+    <t>5,5|1,5|12,5</t>
+  </si>
+  <si>
+    <t>嵩山精英</t>
+  </si>
+  <si>
+    <t>13,400</t>
+  </si>
+  <si>
+    <t>8,5|18,3|26,5</t>
+  </si>
+  <si>
+    <t>日月精英</t>
+  </si>
+  <si>
+    <t>3,3|13,3|22,3</t>
+  </si>
+  <si>
+    <t>番僧精英</t>
+  </si>
+  <si>
+    <t>88,300</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>铁掌精英</t>
+  </si>
+  <si>
+    <t>63,900</t>
+  </si>
+  <si>
+    <t>3,6|22,3|18,3|12,3</t>
+  </si>
+  <si>
+    <t>全真精英</t>
+  </si>
+  <si>
+    <t>53,700</t>
+  </si>
+  <si>
+    <t>14,5|23,3|7,3</t>
+  </si>
+  <si>
+    <t>明教精英</t>
+  </si>
+  <si>
+    <t>74,900</t>
+  </si>
+  <si>
+    <t>3,3|22,3|12,5</t>
+  </si>
+  <si>
+    <t>侠客精英</t>
+  </si>
+  <si>
     <t>丐帮精英</t>
   </si>
   <si>
@@ -1555,165 +1714,6 @@
   </si>
   <si>
     <t>1,5|7,10|26,5|18,5</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>140,600</t>
-  </si>
-  <si>
-    <t>昆仑精英</t>
-  </si>
-  <si>
-    <t>3,5|22,5|12,5</t>
-  </si>
-  <si>
-    <t>神龙精英</t>
-  </si>
-  <si>
-    <t>86,400</t>
-  </si>
-  <si>
-    <t>1,5|14,10</t>
-  </si>
-  <si>
-    <t>武当精英</t>
-  </si>
-  <si>
-    <t>41,900|58,0</t>
-  </si>
-  <si>
-    <t>6,10|1,5|23,5|14,5</t>
-  </si>
-  <si>
-    <t>崆峒精英</t>
-  </si>
-  <si>
-    <t>4,5|24,5|12,5</t>
-  </si>
-  <si>
-    <t>华山精英</t>
-  </si>
-  <si>
-    <t>37,800</t>
-  </si>
-  <si>
-    <t>5,5|1,5|12,5</t>
-  </si>
-  <si>
-    <t>衡山精英</t>
-  </si>
-  <si>
-    <t>46,500</t>
-  </si>
-  <si>
-    <t>1,2|4,5|12,5</t>
-  </si>
-  <si>
-    <t>嵩山精英</t>
-  </si>
-  <si>
-    <t>13,400</t>
-  </si>
-  <si>
-    <t>8,5|18,3|26,5</t>
-  </si>
-  <si>
-    <t>泰山精英</t>
-  </si>
-  <si>
-    <t>45,500</t>
-  </si>
-  <si>
-    <t>青城精英</t>
-  </si>
-  <si>
-    <t>32,800</t>
-  </si>
-  <si>
-    <t>11,3|3,3|15,5</t>
-  </si>
-  <si>
-    <t>五毒精英</t>
-  </si>
-  <si>
-    <t>77,800</t>
-  </si>
-  <si>
-    <t>26,3</t>
-  </si>
-  <si>
-    <t>日月精英</t>
-  </si>
-  <si>
-    <t>3,3|13,3|22,3</t>
-  </si>
-  <si>
-    <t>雪山精英</t>
-  </si>
-  <si>
-    <t>44,400</t>
-  </si>
-  <si>
-    <t>7,3|24,3|12,4</t>
-  </si>
-  <si>
-    <t>番僧精英</t>
-  </si>
-  <si>
-    <t>88,300</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>星宿精英</t>
-  </si>
-  <si>
-    <t>72,800|27,0</t>
-  </si>
-  <si>
-    <t>22,3|24,5</t>
-  </si>
-  <si>
-    <t>铁掌精英</t>
-  </si>
-  <si>
-    <t>63,900</t>
-  </si>
-  <si>
-    <t>3,6|22,3|18,3|12,3</t>
-  </si>
-  <si>
-    <t>全真精英</t>
-  </si>
-  <si>
-    <t>53,700</t>
-  </si>
-  <si>
-    <t>14,5|23,3|7,3</t>
-  </si>
-  <si>
-    <t>明教精英</t>
-  </si>
-  <si>
-    <t>74,900</t>
-  </si>
-  <si>
-    <t>3,3|22,3|12,5</t>
-  </si>
-  <si>
-    <t>翡冷翠</t>
-  </si>
-  <si>
-    <t>人见人爱</t>
-  </si>
-  <si>
-    <t>90,0</t>
-  </si>
-  <si>
-    <t>侠客精英</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1726,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1766,6 +1766,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1921,12 +1933,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2226,58 +2244,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2286,104 +2298,110 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2399,8 +2417,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
@@ -2801,9 +2824,9 @@
   <dimension ref="A1:AP356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B333" sqref="B333:B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -44248,36 +44271,36 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="333" s="1" customFormat="1" ht="11.4" spans="1:41">
-      <c r="A333" s="4">
-        <v>329</v>
-      </c>
-      <c r="B333" s="4">
-        <v>329</v>
-      </c>
-      <c r="C333" s="4">
+    <row r="333" ht="11.4" spans="1:41">
+      <c r="A333" s="9">
+        <v>330</v>
+      </c>
+      <c r="B333" s="9">
+        <v>330</v>
+      </c>
+      <c r="C333" s="9">
         <v>5</v>
       </c>
-      <c r="D333" s="5" t="s">
+      <c r="D333" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E333" s="5" t="s">
-        <v>493</v>
+      <c r="E333" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
       </c>
       <c r="G333" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H333" s="4">
-        <v>7750</v>
+        <v>0</v>
       </c>
       <c r="I333" s="4">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="J333" s="4">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="K333" s="4">
         <v>0</v>
@@ -44286,7 +44309,7 @@
         <v>0</v>
       </c>
       <c r="M333" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N333" s="4">
         <v>0</v>
@@ -44298,52 +44321,52 @@
         <v>-1</v>
       </c>
       <c r="Q333" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R333" s="4">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="S333" s="4">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="T333" s="4">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="U333" s="4">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="V333" s="4">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="W333" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X333" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y333" s="4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z333" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA333" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AB333" s="4">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AC333" s="4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AD333" s="4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AE333" s="4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AF333" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG333" s="4">
         <v>50</v>
@@ -44358,7 +44381,7 @@
         <v>0</v>
       </c>
       <c r="AK333" s="4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AL333" s="4">
         <v>-1</v>
@@ -44367,26 +44390,26 @@
         <v>0</v>
       </c>
       <c r="AN333" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="AO333" s="7" t="s">
         <v>495</v>
+      </c>
+      <c r="AO333" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="11.4" spans="1:41">
-      <c r="A334" s="4">
-        <v>330</v>
-      </c>
-      <c r="B334" s="4">
-        <v>330</v>
-      </c>
-      <c r="C334" s="4">
-        <v>6</v>
-      </c>
-      <c r="D334" s="5" t="s">
+      <c r="A334" s="9">
+        <v>331</v>
+      </c>
+      <c r="B334" s="9">
+        <v>331</v>
+      </c>
+      <c r="C334" s="9">
+        <v>5</v>
+      </c>
+      <c r="D334" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="E334" s="5" t="s">
+      <c r="E334" s="11" t="s">
         <v>496</v>
       </c>
       <c r="F334" s="4">
@@ -44399,10 +44422,10 @@
         <v>7750</v>
       </c>
       <c r="I334" s="4">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="J334" s="4">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="K334" s="4">
         <v>0</v>
@@ -44426,19 +44449,19 @@
         <v>1</v>
       </c>
       <c r="R334" s="4">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="S334" s="4">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="T334" s="4">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="U334" s="4">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V334" s="4">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="W334" s="4">
         <v>0</v>
@@ -44453,25 +44476,25 @@
         <v>0</v>
       </c>
       <c r="AA334" s="4">
+        <v>16</v>
+      </c>
+      <c r="AB334" s="4">
+        <v>43</v>
+      </c>
+      <c r="AC334" s="4">
         <v>15</v>
       </c>
-      <c r="AB334" s="4">
-        <v>54</v>
-      </c>
-      <c r="AC334" s="4">
+      <c r="AD334" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE334" s="4">
         <v>12</v>
-      </c>
-      <c r="AD334" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE334" s="4">
-        <v>13</v>
       </c>
       <c r="AF334" s="4">
         <v>15</v>
       </c>
       <c r="AG334" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AH334" s="4">
         <v>0</v>
@@ -44499,23 +44522,23 @@
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="11.4" spans="1:41">
-      <c r="A335" s="4">
-        <v>331</v>
-      </c>
-      <c r="B335" s="4">
-        <v>331</v>
-      </c>
-      <c r="C335" s="4">
-        <v>8</v>
-      </c>
-      <c r="D335" s="5" t="s">
+      <c r="A335" s="9">
+        <v>332</v>
+      </c>
+      <c r="B335" s="9">
+        <v>332</v>
+      </c>
+      <c r="C335" s="9">
+        <v>6</v>
+      </c>
+      <c r="D335" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E335" s="5" t="s">
+      <c r="E335" s="11" t="s">
         <v>499</v>
       </c>
       <c r="F335" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="4">
         <v>15</v>
@@ -44524,10 +44547,10 @@
         <v>7750</v>
       </c>
       <c r="I335" s="4">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="J335" s="4">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="K335" s="4">
         <v>0</v>
@@ -44551,16 +44574,16 @@
         <v>1</v>
       </c>
       <c r="R335" s="4">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="S335" s="4">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="T335" s="4">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="U335" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V335" s="4">
         <v>81</v>
@@ -44569,7 +44592,7 @@
         <v>0</v>
       </c>
       <c r="X335" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y335" s="4">
         <v>0</v>
@@ -44578,25 +44601,25 @@
         <v>0</v>
       </c>
       <c r="AA335" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AB335" s="4">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="AC335" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD335" s="4">
         <v>10</v>
       </c>
       <c r="AE335" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF335" s="4">
         <v>15</v>
       </c>
       <c r="AG335" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AH335" s="4">
         <v>0</v>
@@ -44623,271 +44646,271 @@
         <v>501</v>
       </c>
     </row>
-    <row r="336" ht="11.4" spans="1:41">
+    <row r="336" customFormat="1" ht="14.4" spans="1:41">
       <c r="A336" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B336" s="4">
-        <v>332</v>
-      </c>
-      <c r="C336" s="4">
+        <v>333</v>
+      </c>
+      <c r="C336" s="12">
         <v>6</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="E336" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="F336" s="4">
-        <v>0</v>
-      </c>
-      <c r="G336" s="4">
+      <c r="F336" s="12">
+        <v>0</v>
+      </c>
+      <c r="G336" s="12">
+        <v>10</v>
+      </c>
+      <c r="H336" s="12">
+        <v>2250</v>
+      </c>
+      <c r="I336" s="12">
+        <v>200</v>
+      </c>
+      <c r="J336" s="12">
+        <v>200</v>
+      </c>
+      <c r="K336" s="12">
+        <v>0</v>
+      </c>
+      <c r="L336" s="12">
+        <v>0</v>
+      </c>
+      <c r="M336" s="12">
+        <v>90</v>
+      </c>
+      <c r="N336" s="12">
+        <v>0</v>
+      </c>
+      <c r="O336" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P336" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q336" s="12">
+        <v>1</v>
+      </c>
+      <c r="R336" s="12">
+        <v>150</v>
+      </c>
+      <c r="S336" s="12">
+        <v>150</v>
+      </c>
+      <c r="T336" s="12">
+        <v>70</v>
+      </c>
+      <c r="U336" s="12">
+        <v>50</v>
+      </c>
+      <c r="V336" s="12">
+        <v>50</v>
+      </c>
+      <c r="W336" s="12">
+        <v>0</v>
+      </c>
+      <c r="X336" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y336" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA336" s="12">
+        <v>50</v>
+      </c>
+      <c r="AB336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="12">
+        <v>10</v>
+      </c>
+      <c r="AF336" s="12">
+        <v>20</v>
+      </c>
+      <c r="AG336" s="12">
+        <v>50</v>
+      </c>
+      <c r="AH336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK336" s="12">
+        <v>60</v>
+      </c>
+      <c r="AL336" s="12">
+        <v>-1</v>
+      </c>
+      <c r="AM336" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN336" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="AO336" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="337" ht="11.4" spans="1:41">
+      <c r="A337" s="14">
+        <v>335</v>
+      </c>
+      <c r="B337" s="14">
+        <v>335</v>
+      </c>
+      <c r="C337" s="14">
+        <v>4</v>
+      </c>
+      <c r="D337" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E337" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="F337" s="4">
+        <v>0</v>
+      </c>
+      <c r="G337" s="4">
+        <v>8</v>
+      </c>
+      <c r="H337" s="4">
+        <v>1400</v>
+      </c>
+      <c r="I337" s="4">
+        <v>148</v>
+      </c>
+      <c r="J337" s="4">
+        <v>148</v>
+      </c>
+      <c r="K337" s="4">
+        <v>0</v>
+      </c>
+      <c r="L337" s="4">
+        <v>0</v>
+      </c>
+      <c r="M337" s="4">
+        <v>90</v>
+      </c>
+      <c r="N337" s="4">
+        <v>0</v>
+      </c>
+      <c r="O337" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P337" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q337" s="4">
+        <v>1</v>
+      </c>
+      <c r="R337" s="4">
+        <v>221</v>
+      </c>
+      <c r="S337" s="4">
+        <v>221</v>
+      </c>
+      <c r="T337" s="4">
+        <v>46</v>
+      </c>
+      <c r="U337" s="4">
+        <v>47</v>
+      </c>
+      <c r="V337" s="4">
+        <v>58</v>
+      </c>
+      <c r="W337" s="4">
+        <v>1</v>
+      </c>
+      <c r="X337" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y337" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z337" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA337" s="4">
         <v>15</v>
       </c>
-      <c r="H336" s="4">
-        <v>7750</v>
-      </c>
-      <c r="I336" s="4">
-        <v>323</v>
-      </c>
-      <c r="J336" s="4">
-        <v>323</v>
-      </c>
-      <c r="K336" s="4">
-        <v>0</v>
-      </c>
-      <c r="L336" s="4">
-        <v>0</v>
-      </c>
-      <c r="M336" s="4">
-        <v>90</v>
-      </c>
-      <c r="N336" s="4">
-        <v>0</v>
-      </c>
-      <c r="O336" s="4">
-        <v>-1</v>
-      </c>
-      <c r="P336" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q336" s="4">
-        <v>1</v>
-      </c>
-      <c r="R336" s="4">
-        <v>270</v>
-      </c>
-      <c r="S336" s="4">
-        <v>270</v>
-      </c>
-      <c r="T336" s="4">
-        <v>69</v>
-      </c>
-      <c r="U336" s="4">
-        <v>54</v>
-      </c>
-      <c r="V336" s="4">
-        <v>74</v>
-      </c>
-      <c r="W336" s="4">
-        <v>5</v>
-      </c>
-      <c r="X336" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y336" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z336" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA336" s="4">
-        <v>55</v>
-      </c>
-      <c r="AB336" s="4">
+      <c r="AB337" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC337" s="4">
+        <v>18</v>
+      </c>
+      <c r="AD337" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE337" s="4">
         <v>12</v>
       </c>
-      <c r="AC336" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD336" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE336" s="4">
-        <v>14</v>
-      </c>
-      <c r="AF336" s="4">
+      <c r="AF337" s="4">
         <v>15</v>
       </c>
-      <c r="AG336" s="4">
-        <v>10</v>
-      </c>
-      <c r="AH336" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI336" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ336" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK336" s="4">
-        <v>10</v>
-      </c>
-      <c r="AL336" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AM336" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN336" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="AO336" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="337" customFormat="1" ht="14.4" spans="1:41">
-      <c r="A337" s="4">
-        <v>333</v>
-      </c>
-      <c r="B337" s="4">
-        <v>333</v>
-      </c>
-      <c r="C337" s="9">
-        <v>6</v>
-      </c>
-      <c r="D337" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E337" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="F337" s="9">
-        <v>0</v>
-      </c>
-      <c r="G337" s="9">
-        <v>10</v>
-      </c>
-      <c r="H337" s="9">
-        <v>2250</v>
-      </c>
-      <c r="I337" s="9">
-        <v>200</v>
-      </c>
-      <c r="J337" s="9">
-        <v>200</v>
-      </c>
-      <c r="K337" s="9">
-        <v>0</v>
-      </c>
-      <c r="L337" s="9">
-        <v>0</v>
-      </c>
-      <c r="M337" s="9">
-        <v>90</v>
-      </c>
-      <c r="N337" s="9">
-        <v>0</v>
-      </c>
-      <c r="O337" s="9">
-        <v>-1</v>
-      </c>
-      <c r="P337" s="9">
-        <v>-1</v>
-      </c>
-      <c r="Q337" s="9">
-        <v>1</v>
-      </c>
-      <c r="R337" s="9">
-        <v>150</v>
-      </c>
-      <c r="S337" s="9">
-        <v>150</v>
-      </c>
-      <c r="T337" s="9">
-        <v>70</v>
-      </c>
-      <c r="U337" s="9">
+      <c r="AG337" s="4">
         <v>50</v>
       </c>
-      <c r="V337" s="9">
-        <v>50</v>
-      </c>
-      <c r="W337" s="9">
-        <v>0</v>
-      </c>
-      <c r="X337" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y337" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA337" s="9">
-        <v>50</v>
-      </c>
-      <c r="AB337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE337" s="9">
-        <v>10</v>
-      </c>
-      <c r="AF337" s="9">
-        <v>20</v>
-      </c>
-      <c r="AG337" s="9">
-        <v>50</v>
-      </c>
-      <c r="AH337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK337" s="9">
+      <c r="AH337" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI337" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ337" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK337" s="4">
         <v>60</v>
       </c>
-      <c r="AL337" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AM337" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN337" s="11" t="s">
+      <c r="AL337" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM337" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN337" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="AO337" s="11" t="s">
-        <v>436</v>
+      <c r="AO337" s="7" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="338" ht="11.4" spans="1:41">
       <c r="A338" s="4">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B338" s="4">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C338" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F338" s="4">
         <v>0</v>
@@ -44899,10 +44922,10 @@
         <v>7750</v>
       </c>
       <c r="I338" s="4">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="J338" s="4">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="K338" s="4">
         <v>0</v>
@@ -44923,43 +44946,43 @@
         <v>-1</v>
       </c>
       <c r="Q338" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R338" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S338" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T338" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U338" s="4">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="V338" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W338" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X338" s="4">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="Y338" s="4">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="Z338" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA338" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB338" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC338" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD338" s="4">
         <v>10</v>
@@ -44971,10 +44994,10 @@
         <v>15</v>
       </c>
       <c r="AG338" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AH338" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI338" s="4">
         <v>0</v>
@@ -44983,7 +45006,7 @@
         <v>0</v>
       </c>
       <c r="AK338" s="4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AL338" s="4">
         <v>-1</v>
@@ -44992,42 +45015,42 @@
         <v>0</v>
       </c>
       <c r="AN338" s="7" t="s">
-        <v>358</v>
+        <v>508</v>
       </c>
       <c r="AO338" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="339" ht="11.4" spans="1:41">
-      <c r="A339" s="4">
-        <v>335</v>
-      </c>
-      <c r="B339" s="4">
-        <v>335</v>
-      </c>
-      <c r="C339" s="4">
-        <v>8</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>508</v>
+      <c r="A339" s="14">
+        <v>337</v>
+      </c>
+      <c r="B339" s="14">
+        <v>337</v>
+      </c>
+      <c r="C339" s="14">
+        <v>5</v>
+      </c>
+      <c r="D339" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E339" s="15" t="s">
+        <v>510</v>
       </c>
       <c r="F339" s="4">
         <v>0</v>
       </c>
       <c r="G339" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H339" s="4">
-        <v>7750</v>
+        <v>2250</v>
       </c>
       <c r="I339" s="4">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="J339" s="4">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="K339" s="4">
         <v>0</v>
@@ -45048,28 +45071,28 @@
         <v>-1</v>
       </c>
       <c r="Q339" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R339" s="4">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="S339" s="4">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="T339" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="U339" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V339" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="W339" s="4">
         <v>3</v>
       </c>
       <c r="X339" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y339" s="4">
         <v>4</v>
@@ -45081,22 +45104,22 @@
         <v>13</v>
       </c>
       <c r="AB339" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC339" s="4">
         <v>12</v>
       </c>
       <c r="AD339" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE339" s="4">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AF339" s="4">
         <v>15</v>
       </c>
       <c r="AG339" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AH339" s="4">
         <v>0</v>
@@ -45108,7 +45131,7 @@
         <v>0</v>
       </c>
       <c r="AK339" s="4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AL339" s="4">
         <v>-1</v>
@@ -45117,27 +45140,27 @@
         <v>0</v>
       </c>
       <c r="AN339" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO339" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="340" ht="11.4" spans="1:41">
       <c r="A340" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B340" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C340" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F340" s="4">
         <v>0</v>
@@ -45149,10 +45172,10 @@
         <v>7750</v>
       </c>
       <c r="I340" s="4">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="J340" s="4">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="K340" s="4">
         <v>0</v>
@@ -45176,55 +45199,55 @@
         <v>1</v>
       </c>
       <c r="R340" s="4">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="S340" s="4">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="T340" s="4">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="U340" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V340" s="4">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="W340" s="4">
         <v>3</v>
       </c>
       <c r="X340" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y340" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z340" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA340" s="4">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AB340" s="4">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AC340" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD340" s="4">
         <v>10</v>
       </c>
       <c r="AE340" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF340" s="4">
         <v>15</v>
       </c>
       <c r="AG340" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AH340" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AI340" s="4">
         <v>0</v>
@@ -45242,27 +45265,27 @@
         <v>0</v>
       </c>
       <c r="AN340" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AO340" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="341" ht="11.4" spans="1:41">
       <c r="A341" s="4">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B341" s="4">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C341" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F341" s="4">
         <v>0</v>
@@ -45274,10 +45297,10 @@
         <v>7750</v>
       </c>
       <c r="I341" s="4">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="J341" s="4">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="K341" s="4">
         <v>0</v>
@@ -45301,46 +45324,46 @@
         <v>1</v>
       </c>
       <c r="R341" s="4">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="S341" s="4">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="T341" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="U341" s="4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V341" s="4">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="W341" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X341" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y341" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z341" s="4">
         <v>0</v>
       </c>
       <c r="AA341" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB341" s="4">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AC341" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD341" s="4">
         <v>10</v>
       </c>
       <c r="AE341" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AF341" s="4">
         <v>15</v>
@@ -45367,27 +45390,27 @@
         <v>0</v>
       </c>
       <c r="AN341" s="7" t="s">
-        <v>400</v>
+        <v>517</v>
       </c>
       <c r="AO341" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="342" ht="11.4" spans="1:41">
       <c r="A342" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B342" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C342" s="4">
         <v>5</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F342" s="4">
         <v>0</v>
@@ -45399,10 +45422,10 @@
         <v>7750</v>
       </c>
       <c r="I342" s="4">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="J342" s="4">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K342" s="4">
         <v>0</v>
@@ -45426,25 +45449,25 @@
         <v>1</v>
       </c>
       <c r="R342" s="4">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="S342" s="4">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="T342" s="4">
         <v>66</v>
       </c>
       <c r="U342" s="4">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="V342" s="4">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="W342" s="4">
         <v>4</v>
       </c>
       <c r="X342" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y342" s="4">
         <v>4</v>
@@ -45453,19 +45476,19 @@
         <v>0</v>
       </c>
       <c r="AA342" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB342" s="4">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC342" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD342" s="4">
         <v>10</v>
       </c>
       <c r="AE342" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF342" s="4">
         <v>15</v>
@@ -45492,27 +45515,27 @@
         <v>0</v>
       </c>
       <c r="AN342" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AO342" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="343" ht="11.4" spans="1:41">
-      <c r="A343" s="4">
-        <v>339</v>
-      </c>
-      <c r="B343" s="4">
-        <v>339</v>
-      </c>
-      <c r="C343" s="4">
-        <v>5</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>519</v>
+      <c r="A343" s="14">
+        <v>341</v>
+      </c>
+      <c r="B343" s="14">
+        <v>341</v>
+      </c>
+      <c r="C343" s="14">
+        <v>8</v>
+      </c>
+      <c r="D343" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E343" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="F343" s="4">
         <v>0</v>
@@ -45524,10 +45547,10 @@
         <v>7750</v>
       </c>
       <c r="I343" s="4">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="J343" s="4">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="K343" s="4">
         <v>0</v>
@@ -45551,25 +45574,25 @@
         <v>1</v>
       </c>
       <c r="R343" s="4">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="S343" s="4">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="T343" s="4">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="U343" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V343" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W343" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X343" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y343" s="4">
         <v>4</v>
@@ -45578,25 +45601,25 @@
         <v>0</v>
       </c>
       <c r="AA343" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB343" s="4">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="AC343" s="4">
         <v>12</v>
       </c>
       <c r="AD343" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AE343" s="4">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AF343" s="4">
         <v>15</v>
       </c>
       <c r="AG343" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AH343" s="4">
         <v>0</v>
@@ -45608,7 +45631,7 @@
         <v>0</v>
       </c>
       <c r="AK343" s="4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AL343" s="4">
         <v>-1</v>
@@ -45617,27 +45640,27 @@
         <v>0</v>
       </c>
       <c r="AN343" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AO343" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" ht="11.4" spans="1:41">
-      <c r="A344" s="4">
-        <v>340</v>
-      </c>
-      <c r="B344" s="4">
-        <v>340</v>
-      </c>
-      <c r="C344" s="4">
-        <v>8</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>522</v>
+      <c r="A344" s="14">
+        <v>342</v>
+      </c>
+      <c r="B344" s="14">
+        <v>342</v>
+      </c>
+      <c r="C344" s="14">
+        <v>7</v>
+      </c>
+      <c r="D344" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E344" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="F344" s="4">
         <v>0</v>
@@ -45649,10 +45672,10 @@
         <v>7750</v>
       </c>
       <c r="I344" s="4">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="J344" s="4">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="K344" s="4">
         <v>0</v>
@@ -45676,37 +45699,37 @@
         <v>1</v>
       </c>
       <c r="R344" s="4">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="S344" s="4">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="T344" s="4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U344" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V344" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W344" s="4">
         <v>4</v>
       </c>
       <c r="X344" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y344" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z344" s="4">
         <v>0</v>
       </c>
       <c r="AA344" s="4">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="AB344" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AC344" s="4">
         <v>12</v>
@@ -45715,13 +45738,13 @@
         <v>10</v>
       </c>
       <c r="AE344" s="4">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AF344" s="4">
         <v>15</v>
       </c>
       <c r="AG344" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AH344" s="4">
         <v>0</v>
@@ -45733,7 +45756,7 @@
         <v>0</v>
       </c>
       <c r="AK344" s="4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AL344" s="4">
         <v>-1</v>
@@ -45742,27 +45765,27 @@
         <v>0</v>
       </c>
       <c r="AN344" s="7" t="s">
-        <v>523</v>
+        <v>358</v>
       </c>
       <c r="AO344" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="345" ht="11.4" spans="1:41">
       <c r="A345" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B345" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C345" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F345" s="4">
         <v>0</v>
@@ -45774,10 +45797,10 @@
         <v>7750</v>
       </c>
       <c r="I345" s="4">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="J345" s="4">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="K345" s="4">
         <v>0</v>
@@ -45801,46 +45824,46 @@
         <v>1</v>
       </c>
       <c r="R345" s="4">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="S345" s="4">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="T345" s="4">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="U345" s="4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V345" s="4">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="W345" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X345" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y345" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z345" s="4">
         <v>0</v>
       </c>
       <c r="AA345" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB345" s="4">
         <v>14</v>
       </c>
-      <c r="AB345" s="4">
-        <v>43</v>
-      </c>
       <c r="AC345" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AD345" s="4">
         <v>10</v>
       </c>
       <c r="AE345" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AF345" s="4">
         <v>15</v>
@@ -45867,42 +45890,42 @@
         <v>0</v>
       </c>
       <c r="AN345" s="7" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="AO345" s="7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="346" ht="11.4" spans="1:41">
       <c r="A346" s="4">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B346" s="4">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C346" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F346" s="4">
         <v>0</v>
       </c>
       <c r="G346" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H346" s="4">
-        <v>1400</v>
+        <v>7750</v>
       </c>
       <c r="I346" s="4">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="J346" s="4">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="K346" s="4">
         <v>0</v>
@@ -45926,52 +45949,52 @@
         <v>1</v>
       </c>
       <c r="R346" s="4">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="S346" s="4">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="T346" s="4">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="U346" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V346" s="4">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="W346" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X346" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y346" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z346" s="4">
         <v>0</v>
       </c>
       <c r="AA346" s="4">
+        <v>20</v>
+      </c>
+      <c r="AB346" s="4">
+        <v>60</v>
+      </c>
+      <c r="AC346" s="4">
         <v>15</v>
       </c>
-      <c r="AB346" s="4">
-        <v>23</v>
-      </c>
-      <c r="AC346" s="4">
-        <v>18</v>
-      </c>
       <c r="AD346" s="4">
         <v>10</v>
       </c>
       <c r="AE346" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF346" s="4">
         <v>15</v>
       </c>
       <c r="AG346" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AH346" s="4">
         <v>0</v>
@@ -45992,27 +46015,27 @@
         <v>0</v>
       </c>
       <c r="AN346" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO346" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="347" ht="11.4" spans="1:41">
       <c r="A347" s="4">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B347" s="4">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C347" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F347" s="4">
         <v>0</v>
@@ -46024,10 +46047,10 @@
         <v>7750</v>
       </c>
       <c r="I347" s="4">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="J347" s="4">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="K347" s="4">
         <v>0</v>
@@ -46048,49 +46071,49 @@
         <v>-1</v>
       </c>
       <c r="Q347" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R347" s="4">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="S347" s="4">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="T347" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="U347" s="4">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="V347" s="4">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="W347" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X347" s="4">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="Y347" s="4">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="Z347" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA347" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB347" s="4">
+        <v>63</v>
+      </c>
+      <c r="AC347" s="4">
         <v>13</v>
       </c>
-      <c r="AC347" s="4">
+      <c r="AD347" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE347" s="4">
         <v>16</v>
-      </c>
-      <c r="AD347" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE347" s="4">
-        <v>13</v>
       </c>
       <c r="AF347" s="4">
         <v>15</v>
@@ -46099,7 +46122,7 @@
         <v>50</v>
       </c>
       <c r="AH347" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AI347" s="4">
         <v>0</v>
@@ -46117,27 +46140,27 @@
         <v>0</v>
       </c>
       <c r="AN347" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO347" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="348" ht="11.4" spans="1:41">
-      <c r="A348" s="4">
-        <v>344</v>
-      </c>
-      <c r="B348" s="4">
-        <v>344</v>
-      </c>
-      <c r="C348" s="4">
+      <c r="A348" s="14">
+        <v>346</v>
+      </c>
+      <c r="B348" s="14">
+        <v>346</v>
+      </c>
+      <c r="C348" s="14">
         <v>8</v>
       </c>
-      <c r="D348" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>533</v>
+      <c r="D348" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="F348" s="4">
         <v>0</v>
@@ -46149,10 +46172,10 @@
         <v>7750</v>
       </c>
       <c r="I348" s="4">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J348" s="4">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K348" s="4">
         <v>0</v>
@@ -46173,28 +46196,28 @@
         <v>-1</v>
       </c>
       <c r="Q348" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R348" s="4">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="S348" s="4">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="T348" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U348" s="4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V348" s="4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W348" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X348" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y348" s="4">
         <v>3</v>
@@ -46203,19 +46226,19 @@
         <v>0</v>
       </c>
       <c r="AA348" s="4">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="AB348" s="4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC348" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD348" s="4">
         <v>10</v>
       </c>
       <c r="AE348" s="4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AF348" s="4">
         <v>15</v>
@@ -46242,42 +46265,42 @@
         <v>0</v>
       </c>
       <c r="AN348" s="7" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="AO348" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="349" ht="11.4" spans="1:41">
       <c r="A349" s="4">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B349" s="4">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C349" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F349" s="4">
         <v>0</v>
       </c>
       <c r="G349" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H349" s="4">
-        <v>2250</v>
+        <v>7750</v>
       </c>
       <c r="I349" s="4">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="J349" s="4">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="K349" s="4">
         <v>0</v>
@@ -46301,46 +46324,46 @@
         <v>0</v>
       </c>
       <c r="R349" s="4">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="S349" s="4">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="T349" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U349" s="4">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="V349" s="4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W349" s="4">
+        <v>6</v>
+      </c>
+      <c r="X349" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y349" s="4">
         <v>3</v>
       </c>
-      <c r="X349" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y349" s="4">
-        <v>4</v>
-      </c>
       <c r="Z349" s="4">
         <v>0</v>
       </c>
       <c r="AA349" s="4">
+        <v>14</v>
+      </c>
+      <c r="AB349" s="4">
         <v>13</v>
       </c>
-      <c r="AB349" s="4">
-        <v>14</v>
-      </c>
       <c r="AC349" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD349" s="4">
         <v>10</v>
       </c>
       <c r="AE349" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF349" s="4">
         <v>15</v>
@@ -46367,27 +46390,27 @@
         <v>0</v>
       </c>
       <c r="AN349" s="7" t="s">
-        <v>536</v>
+        <v>443</v>
       </c>
       <c r="AO349" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="350" ht="11.4" spans="1:41">
       <c r="A350" s="4">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B350" s="4">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C350" s="4">
         <v>7</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F350" s="4">
         <v>0</v>
@@ -46492,27 +46515,27 @@
         <v>0</v>
       </c>
       <c r="AN350" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO350" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="351" ht="11.4" spans="1:41">
       <c r="A351" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B351" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C351" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F351" s="4">
         <v>0</v>
@@ -46524,10 +46547,10 @@
         <v>7750</v>
       </c>
       <c r="I351" s="4">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="J351" s="4">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="K351" s="4">
         <v>0</v>
@@ -46551,46 +46574,46 @@
         <v>1</v>
       </c>
       <c r="R351" s="4">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="S351" s="4">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="T351" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U351" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V351" s="4">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="W351" s="4">
         <v>3</v>
       </c>
       <c r="X351" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="Y351" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z351" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA351" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB351" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC351" s="4">
+        <v>14</v>
+      </c>
+      <c r="AD351" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE351" s="4">
         <v>15</v>
-      </c>
-      <c r="AC351" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD351" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE351" s="4">
-        <v>13</v>
       </c>
       <c r="AF351" s="4">
         <v>15</v>
@@ -46599,7 +46622,7 @@
         <v>50</v>
       </c>
       <c r="AH351" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI351" s="4">
         <v>0</v>
@@ -46617,27 +46640,27 @@
         <v>0</v>
       </c>
       <c r="AN351" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO351" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="352" ht="11.4" spans="1:41">
-      <c r="A352" s="4">
-        <v>348</v>
-      </c>
-      <c r="B352" s="4">
-        <v>348</v>
-      </c>
-      <c r="C352" s="4">
-        <v>7</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E352" s="3" t="s">
-        <v>544</v>
+      <c r="A352" s="14">
+        <v>350</v>
+      </c>
+      <c r="B352" s="14">
+        <v>350</v>
+      </c>
+      <c r="C352" s="14">
+        <v>5</v>
+      </c>
+      <c r="D352" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E352" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="F352" s="4">
         <v>0</v>
@@ -46649,10 +46672,10 @@
         <v>7750</v>
       </c>
       <c r="I352" s="4">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="J352" s="4">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="K352" s="4">
         <v>0</v>
@@ -46676,25 +46699,25 @@
         <v>1</v>
       </c>
       <c r="R352" s="4">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="S352" s="4">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="T352" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U352" s="4">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V352" s="4">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="W352" s="4">
+        <v>6</v>
+      </c>
+      <c r="X352" s="4">
         <v>3</v>
-      </c>
-      <c r="X352" s="4">
-        <v>2</v>
       </c>
       <c r="Y352" s="4">
         <v>1</v>
@@ -46703,19 +46726,19 @@
         <v>0</v>
       </c>
       <c r="AA352" s="4">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AB352" s="4">
         <v>11</v>
       </c>
       <c r="AC352" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD352" s="4">
         <v>10</v>
       </c>
       <c r="AE352" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF352" s="4">
         <v>15</v>
@@ -46742,27 +46765,27 @@
         <v>0</v>
       </c>
       <c r="AN352" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO352" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="353" ht="11.4" spans="1:41">
-      <c r="A353" s="4">
-        <v>349</v>
-      </c>
-      <c r="B353" s="4">
-        <v>349</v>
-      </c>
-      <c r="C353" s="4">
-        <v>5</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>547</v>
+      <c r="A353" s="14">
+        <v>351</v>
+      </c>
+      <c r="B353" s="14">
+        <v>351</v>
+      </c>
+      <c r="C353" s="14">
+        <v>7</v>
+      </c>
+      <c r="D353" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E353" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="F353" s="4">
         <v>0</v>
@@ -46774,10 +46797,10 @@
         <v>7750</v>
       </c>
       <c r="I353" s="4">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="J353" s="4">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="K353" s="4">
         <v>0</v>
@@ -46801,13 +46824,13 @@
         <v>1</v>
       </c>
       <c r="R353" s="4">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="S353" s="4">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="T353" s="4">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U353" s="4">
         <v>50</v>
@@ -46816,31 +46839,31 @@
         <v>65</v>
       </c>
       <c r="W353" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X353" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y353" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z353" s="4">
         <v>0</v>
       </c>
       <c r="AA353" s="4">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AB353" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC353" s="4">
         <v>11</v>
       </c>
-      <c r="AC353" s="4">
-        <v>13</v>
-      </c>
       <c r="AD353" s="4">
         <v>10</v>
       </c>
       <c r="AE353" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF353" s="4">
         <v>15</v>
@@ -46867,27 +46890,27 @@
         <v>0</v>
       </c>
       <c r="AN353" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO353" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="354" ht="11.4" spans="1:41">
       <c r="A354" s="4">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B354" s="4">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C354" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F354" s="4">
         <v>0</v>
@@ -46899,10 +46922,10 @@
         <v>7750</v>
       </c>
       <c r="I354" s="4">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="J354" s="4">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="K354" s="4">
         <v>0</v>
@@ -46923,177 +46946,177 @@
         <v>-1</v>
       </c>
       <c r="Q354" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R354" s="4">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="S354" s="4">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="T354" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="U354" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V354" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="W354" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X354" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y354" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z354" s="4">
         <v>0</v>
       </c>
       <c r="AA354" s="4">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="AB354" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC354" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD354" s="4">
         <v>10</v>
       </c>
       <c r="AE354" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AF354" s="4">
         <v>15</v>
       </c>
       <c r="AG354" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK354" s="4">
+        <v>10</v>
+      </c>
+      <c r="AL354" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AM354" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO354" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" s="1" customFormat="1" ht="11.4" spans="1:41">
+      <c r="A355" s="14">
+        <v>353</v>
+      </c>
+      <c r="B355" s="14">
+        <v>353</v>
+      </c>
+      <c r="C355" s="14">
+        <v>8</v>
+      </c>
+      <c r="D355" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E355" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F355" s="4">
+        <v>0</v>
+      </c>
+      <c r="G355" s="4">
+        <v>15</v>
+      </c>
+      <c r="H355" s="4">
+        <v>7750</v>
+      </c>
+      <c r="I355" s="4">
+        <v>395</v>
+      </c>
+      <c r="J355" s="4">
+        <v>395</v>
+      </c>
+      <c r="K355" s="4">
+        <v>0</v>
+      </c>
+      <c r="L355" s="4">
+        <v>0</v>
+      </c>
+      <c r="M355" s="4">
+        <v>90</v>
+      </c>
+      <c r="N355" s="4">
+        <v>0</v>
+      </c>
+      <c r="O355" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P355" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q355" s="4">
+        <v>1</v>
+      </c>
+      <c r="R355" s="4">
+        <v>258</v>
+      </c>
+      <c r="S355" s="4">
+        <v>258</v>
+      </c>
+      <c r="T355" s="4">
+        <v>81</v>
+      </c>
+      <c r="U355" s="4">
+        <v>71</v>
+      </c>
+      <c r="V355" s="4">
+        <v>81</v>
+      </c>
+      <c r="W355" s="4">
+        <v>0</v>
+      </c>
+      <c r="X355" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y355" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z355" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA355" s="4">
         <v>50</v>
       </c>
-      <c r="AH354" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI354" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ354" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK354" s="4">
-        <v>60</v>
-      </c>
-      <c r="AL354" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AM354" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN354" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="AO354" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="355" ht="11.4" spans="1:41">
-      <c r="A355" s="4">
-        <v>351</v>
-      </c>
-      <c r="B355" s="4">
-        <v>351</v>
-      </c>
-      <c r="C355" s="4">
-        <v>5</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F355" s="4">
-        <v>1</v>
-      </c>
-      <c r="G355" s="4">
-        <v>1</v>
-      </c>
-      <c r="H355" s="4">
-        <v>0</v>
-      </c>
-      <c r="I355" s="4">
-        <v>38</v>
-      </c>
-      <c r="J355" s="4">
-        <v>38</v>
-      </c>
-      <c r="K355" s="4">
-        <v>0</v>
-      </c>
-      <c r="L355" s="4">
-        <v>0</v>
-      </c>
-      <c r="M355" s="4">
-        <v>100</v>
-      </c>
-      <c r="N355" s="4">
-        <v>0</v>
-      </c>
-      <c r="O355" s="4">
-        <v>-1</v>
-      </c>
-      <c r="P355" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q355" s="4">
-        <v>0</v>
-      </c>
-      <c r="R355" s="4">
-        <v>26</v>
-      </c>
-      <c r="S355" s="4">
-        <v>26</v>
-      </c>
-      <c r="T355" s="4">
-        <v>27</v>
-      </c>
-      <c r="U355" s="4">
-        <v>27</v>
-      </c>
-      <c r="V355" s="4">
-        <v>27</v>
-      </c>
-      <c r="W355" s="4">
-        <v>20</v>
-      </c>
-      <c r="X355" s="4">
-        <v>17</v>
-      </c>
-      <c r="Y355" s="4">
-        <v>19</v>
-      </c>
-      <c r="Z355" s="4">
-        <v>18</v>
-      </c>
-      <c r="AA355" s="4">
-        <v>30</v>
-      </c>
       <c r="AB355" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AC355" s="4">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AD355" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AE355" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AF355" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG355" s="4">
         <v>50</v>
@@ -47108,7 +47131,7 @@
         <v>0</v>
       </c>
       <c r="AK355" s="4">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AL355" s="4">
         <v>-1</v>
@@ -47117,27 +47140,27 @@
         <v>0</v>
       </c>
       <c r="AN355" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="AO355" s="7">
-        <v>-1</v>
+        <v>553</v>
+      </c>
+      <c r="AO355" s="7" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="356" ht="11.4" spans="1:41">
-      <c r="A356" s="4">
-        <v>352</v>
-      </c>
-      <c r="B356" s="4">
-        <v>352</v>
-      </c>
-      <c r="C356" s="4">
-        <v>9</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>556</v>
+      <c r="A356" s="14">
+        <v>354</v>
+      </c>
+      <c r="B356" s="14">
+        <v>354</v>
+      </c>
+      <c r="C356" s="14">
+        <v>6</v>
+      </c>
+      <c r="D356" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E356" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="F356" s="4">
         <v>0</v>
@@ -47149,10 +47172,10 @@
         <v>7750</v>
       </c>
       <c r="I356" s="4">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="J356" s="4">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="K356" s="4">
         <v>0</v>
@@ -47173,49 +47196,49 @@
         <v>-1</v>
       </c>
       <c r="Q356" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R356" s="4">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="S356" s="4">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="T356" s="4">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U356" s="4">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="V356" s="4">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="W356" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X356" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y356" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z356" s="4">
         <v>0</v>
       </c>
       <c r="AA356" s="4">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB356" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC356" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD356" s="4">
         <v>10</v>
       </c>
       <c r="AE356" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF356" s="4">
         <v>15</v>
@@ -47242,14 +47265,14 @@
         <v>0</v>
       </c>
       <c r="AN356" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO356" s="7">
-        <v>-1</v>
+        <v>350</v>
+      </c>
+      <c r="AO356" s="7" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AP354">
+  <autoFilter ref="A3:AP353">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AP$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AP$356</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -2823,10 +2823,10 @@
   <sheetPr/>
   <dimension ref="A1:AP356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B333" sqref="B333:B356"/>
+      <selection pane="bottomLeft" activeCell="R51" sqref="$A51:$XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -9089,7 +9089,7 @@
         <v>32</v>
       </c>
       <c r="AH51" s="4">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AI51" s="4">
         <v>0</v>
@@ -47272,7 +47272,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AP353">
+  <autoFilter ref="A3:AP356">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/人物.xlsx
@@ -1726,7 +1726,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1778,6 +1778,16 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2244,58 +2254,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2304,104 +2308,110 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2424,6 +2434,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
@@ -2823,10 +2835,10 @@
   <sheetPr/>
   <dimension ref="A1:AP356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R51" sqref="$A51:$XFD51"/>
+      <selection pane="bottomLeft" activeCell="E355" sqref="A355:E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -44764,10 +44776,10 @@
       <c r="AM336" s="12">
         <v>0</v>
       </c>
-      <c r="AN336" s="16" t="s">
+      <c r="AN336" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="AO336" s="16" t="s">
+      <c r="AO336" s="18" t="s">
         <v>436</v>
       </c>
     </row>
@@ -47022,19 +47034,19 @@
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="11.4" spans="1:41">
-      <c r="A355" s="14">
+      <c r="A355" s="16">
         <v>353</v>
       </c>
-      <c r="B355" s="14">
+      <c r="B355" s="16">
         <v>353</v>
       </c>
-      <c r="C355" s="14">
+      <c r="C355" s="16">
         <v>8</v>
       </c>
-      <c r="D355" s="15" t="s">
+      <c r="D355" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="E355" s="15" t="s">
+      <c r="E355" s="17" t="s">
         <v>552</v>
       </c>
       <c r="F355" s="4">
